--- a/פרויקט גמר CPP.xlsx
+++ b/פרויקט גמר CPP.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidM\source\repos\finalProjectCpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F8C8F1-D350-414F-88DB-408DC6889A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5335BE-35C4-471A-B049-C944EEBFC15A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D5F3B20F-B123-4529-BBC6-744239AAD04B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="כללי" sheetId="1" r:id="rId1"/>
+    <sheet name="פירוט כלל המחלקות" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="107">
   <si>
     <t>פרויקט</t>
   </si>
@@ -317,6 +317,61 @@
   </si>
   <si>
     <t>פרויקט project</t>
+  </si>
+  <si>
+    <t>תאריך התחלה
+string initDate</t>
+  </si>
+  <si>
+    <t>תאריך סוף
+string 
+finalDate</t>
+  </si>
+  <si>
+    <t>שם
+string name</t>
+  </si>
+  <si>
+    <t>מיקום
+location</t>
+  </si>
+  <si>
+    <t>משאבים
+string*
+resource</t>
+  </si>
+  <si>
+    <t>משתתפים
+  string*  participant</t>
+  </si>
+  <si>
+    <t>כמות הכסף שנדרש לתשלום
+int amountPay</t>
+  </si>
+  <si>
+    <t>כולל בדיקה
+bool test</t>
+  </si>
+  <si>
+    <t>הפנייה לפגישה
+access* accessReffer</t>
+  </si>
+  <si>
+    <t>הפנייה להתקנה
+install*
+installReffer</t>
+  </si>
+  <si>
+    <t>מספר משימה
+const in numberTask</t>
+  </si>
+  <si>
+    <t>סופר משימות
+static int taskCout</t>
+  </si>
+  <si>
+    <t>כמות משימות בפרויקט
+int totalTask</t>
   </si>
 </sst>
 </file>
@@ -470,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="2"/>
@@ -556,6 +611,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,8 +632,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1411,7 +1469,8 @@
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,31 +1483,80 @@
     <col min="7" max="7" width="28" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="9.140625" style="15"/>
+    <col min="10" max="10" width="9.140625" style="15"/>
+    <col min="11" max="11" width="12.5703125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="15"/>
+    <col min="13" max="13" width="20.85546875" style="15" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="15"/>
     <col min="15" max="15" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="15" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="15"/>
-    <col min="19" max="19" width="12" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" style="15" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" style="15" customWidth="1"/>
     <col min="20" max="20" width="19.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
+      <c r="F1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
@@ -1491,15 +1599,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="16"/>
       <c r="F3" s="7" t="s">
         <v>28</v>
@@ -1507,44 +1615,44 @@
       <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>19</v>
+      <c r="H3" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>77</v>
+        <v>100</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1786,16 +1894,16 @@
       <c r="C9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="30" t="s">
+      <c r="R9" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="S9" s="30"/>
+      <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="30">
         <v>1</v>
       </c>
       <c r="D10" s="10"/>
@@ -1840,7 +1948,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="29"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="14">
@@ -1885,7 +1993,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="29"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="10" t="s">
         <v>51</v>
       </c>
@@ -1912,7 +2020,7 @@
       <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="29"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="10" t="s">
         <v>34</v>
       </c>
@@ -1959,7 +2067,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="29"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="10" t="s">
         <v>34</v>
       </c>
@@ -2004,7 +2112,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C15" s="29"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="10" t="s">
         <v>52</v>
       </c>
@@ -2051,7 +2159,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="29"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="10" t="s">
         <v>53</v>
       </c>
@@ -2098,7 +2206,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C17" s="29"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="18" t="s">
@@ -2146,7 +2254,7 @@
       <c r="B20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="35">
         <v>2</v>
       </c>
       <c r="D20" s="10"/>
@@ -2193,7 +2301,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="17">
@@ -2238,7 +2346,7 @@
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C22" s="34"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="10" t="s">
         <v>51</v>
       </c>
@@ -2265,12 +2373,12 @@
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C23" s="34"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="30" t="s">
         <v>39</v>
       </c>
       <c r="G23" s="10" t="s">
@@ -2312,12 +2420,12 @@
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C24" s="34"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="29"/>
+      <c r="F24" s="30"/>
       <c r="G24" s="10" t="s">
         <v>38</v>
       </c>
@@ -2357,12 +2465,12 @@
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C25" s="34"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="29"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="10" t="s">
         <v>49</v>
       </c>
@@ -2402,12 +2510,12 @@
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="29"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="10" t="s">
         <v>48</v>
       </c>
@@ -2447,7 +2555,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C27" s="34"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="10" t="s">
         <v>52</v>
       </c>
@@ -2494,7 +2602,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C28" s="34"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="10" t="s">
         <v>53</v>
       </c>
@@ -2541,7 +2649,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C29" s="34"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="10" t="s">
         <v>53</v>
       </c>
@@ -2586,7 +2694,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C30" s="34"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="18" t="s">
         <v>53</v>
       </c>
@@ -2633,7 +2741,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C31" s="34"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="10" t="s">
         <v>63</v>
       </c>
@@ -2680,7 +2788,7 @@
       <c r="B34" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="32">
         <v>3</v>
       </c>
       <c r="D34" s="10"/>
@@ -2727,7 +2835,7 @@
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="32"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="14">
@@ -2772,7 +2880,7 @@
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C36" s="32"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="10" t="s">
         <v>51</v>
       </c>
@@ -2799,12 +2907,12 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="32"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="32" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="10" t="s">
@@ -2848,12 +2956,12 @@
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="32"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E38" s="10"/>
-      <c r="F38" s="32"/>
+      <c r="F38" s="33"/>
       <c r="G38" s="10" t="s">
         <v>38</v>
       </c>
@@ -2895,12 +3003,12 @@
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="32"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="32"/>
+      <c r="F39" s="33"/>
       <c r="G39" s="10" t="s">
         <v>57</v>
       </c>
@@ -2942,12 +3050,12 @@
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="32"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="33"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="10" t="s">
         <v>58</v>
       </c>
@@ -2989,7 +3097,7 @@
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="32"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="10" t="s">
         <v>52</v>
       </c>
@@ -3038,7 +3146,7 @@
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="32"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="10" t="s">
         <v>53</v>
       </c>
@@ -3087,7 +3195,7 @@
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C43" s="32"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="10" t="s">
         <v>53</v>
       </c>
@@ -3134,7 +3242,7 @@
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C44" s="32"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="18" t="s">
         <v>53</v>
       </c>
@@ -3181,7 +3289,7 @@
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C45" s="32"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="10" t="s">
         <v>63</v>
       </c>
@@ -3213,7 +3321,7 @@
       <c r="B47" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="32">
         <v>4</v>
       </c>
       <c r="D47" s="10"/>
@@ -3260,7 +3368,7 @@
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C48" s="32"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="25">
@@ -3305,7 +3413,7 @@
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C49" s="32"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="10" t="s">
         <v>51</v>
       </c>
@@ -3332,12 +3440,12 @@
       <c r="S49" s="10"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C50" s="32"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="24"/>
-      <c r="F50" s="31" t="s">
+      <c r="F50" s="32" t="s">
         <v>39</v>
       </c>
       <c r="G50" s="10" t="s">
@@ -3381,12 +3489,12 @@
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C51" s="32"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E51" s="24"/>
-      <c r="F51" s="33"/>
+      <c r="F51" s="34"/>
       <c r="G51" s="10" t="s">
         <v>38</v>
       </c>
@@ -3428,7 +3536,7 @@
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C52" s="32"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="10" t="s">
         <v>52</v>
       </c>
@@ -3477,7 +3585,7 @@
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C53" s="32"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="10" t="s">
         <v>53</v>
       </c>
@@ -3526,7 +3634,7 @@
       </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C54" s="33"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="10" t="s">
         <v>53</v>
       </c>
@@ -3576,7 +3684,7 @@
       <c r="B57" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="29">
+      <c r="C57" s="30">
         <v>5</v>
       </c>
       <c r="D57" s="10"/>
@@ -3626,7 +3734,7 @@
       </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C58" s="29"/>
+      <c r="C58" s="30"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="14">
@@ -3676,12 +3784,12 @@
       </c>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C59" s="29"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="10"/>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="30" t="s">
         <v>39</v>
       </c>
       <c r="G59" s="18" t="s">
@@ -3728,12 +3836,12 @@
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C60" s="29"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="29"/>
+      <c r="F60" s="30"/>
       <c r="G60" s="18" t="s">
         <v>38</v>
       </c>
@@ -3778,12 +3886,12 @@
       </c>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C61" s="29"/>
+      <c r="C61" s="30"/>
       <c r="D61" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E61" s="10"/>
-      <c r="F61" s="29"/>
+      <c r="F61" s="30"/>
       <c r="G61" s="18" t="s">
         <v>79</v>
       </c>
@@ -3828,7 +3936,7 @@
       </c>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C62" s="29"/>
+      <c r="C62" s="30"/>
       <c r="D62" s="10" t="s">
         <v>63</v>
       </c>
@@ -3880,7 +3988,7 @@
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C63" s="29"/>
+      <c r="C63" s="30"/>
       <c r="D63" s="10" t="s">
         <v>80</v>
       </c>
@@ -3932,7 +4040,7 @@
       </c>
     </row>
     <row r="64" spans="2:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="C64" s="29"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="10" t="s">
         <v>1</v>
       </c>
@@ -3984,7 +4092,7 @@
       </c>
     </row>
     <row r="65" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C65" s="29"/>
+      <c r="C65" s="30"/>
       <c r="D65" s="10" t="s">
         <v>53</v>
       </c>
@@ -4187,18 +4295,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4220,6 +4328,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D1B2B29-F87D-4F41-B220-6F031569A54C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF8A16A5-6A70-472F-9C74-ADB2212622A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4233,12 +4349,4 @@
     <ds:schemaRef ds:uri="ef8f1728-cc87-4aeb-a1ab-b1c52ebabaec"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D1B2B29-F87D-4F41-B220-6F031569A54C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/פרויקט גמר CPP.xlsx
+++ b/פרויקט גמר CPP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidM\source\repos\finalProjectCpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5335BE-35C4-471A-B049-C944EEBFC15A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3974329-8B50-4CED-B048-D21AE592B427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D5F3B20F-B123-4529-BBC6-744239AAD04B}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="14910" windowHeight="5910" activeTab="1" xr2:uid="{D5F3B20F-B123-4529-BBC6-744239AAD04B}"/>
   </bookViews>
   <sheets>
     <sheet name="כללי" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="108">
   <si>
     <t>פרויקט</t>
   </si>
@@ -372,6 +372,11 @@
   <si>
     <t>כמות משימות בפרויקט
 int totalTask</t>
+  </si>
+  <si>
+    <t>מיקום
+string
+location</t>
   </si>
 </sst>
 </file>
@@ -1468,9 +1473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E481D19-D7AD-4BEB-976A-AE15DC892047}">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1525,7 @@
         <v>99</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>100</v>

--- a/פרויקט גמר CPP.xlsx
+++ b/פרויקט גמר CPP.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidM\source\repos\finalProjectCpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3974329-8B50-4CED-B048-D21AE592B427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F8F2DC-3F08-4C0A-BF9A-05DF33FB403A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="4290" windowWidth="14910" windowHeight="5910" activeTab="1" xr2:uid="{D5F3B20F-B123-4529-BBC6-744239AAD04B}"/>
   </bookViews>
   <sheets>
     <sheet name="כללי" sheetId="1" r:id="rId1"/>
     <sheet name="פירוט כלל המחלקות" sheetId="2" r:id="rId2"/>
+    <sheet name="משימות" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="109">
   <si>
     <t>פרויקט</t>
   </si>
@@ -250,10 +251,6 @@
   </si>
   <si>
     <t>סופר משימות</t>
-  </si>
-  <si>
-    <t>taskCounter (static int)
-taskNumber(const int)</t>
   </si>
   <si>
     <t>סוכם בהתקנה</t>
@@ -377,6 +374,13 @@
     <t>מיקום
 string
 location</t>
+  </si>
+  <si>
+    <t>משימות</t>
+  </si>
+  <si>
+    <t>סופר משימות
+static int taskCt</t>
   </si>
 </sst>
 </file>
@@ -1158,10 +1162,10 @@
         <v>69</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA6" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="6:27" ht="60" x14ac:dyDescent="0.25">
@@ -1202,7 +1206,7 @@
         <v>67</v>
       </c>
       <c r="X7" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y7" s="21" t="s">
         <v>70</v>
@@ -1211,7 +1215,7 @@
         <v>71</v>
       </c>
       <c r="AA7" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="6:27" x14ac:dyDescent="0.25">
@@ -1473,9 +1477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E481D19-D7AD-4BEB-976A-AE15DC892047}">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,43 +1517,43 @@
         <v>25</v>
       </c>
       <c r="H1" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="36" t="s">
-        <v>96</v>
-      </c>
       <c r="K1" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="36" t="s">
+      <c r="P1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="S1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1598,10 +1602,10 @@
         <v>69</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="75" x14ac:dyDescent="0.25">
@@ -1621,43 +1625,43 @@
         <v>25</v>
       </c>
       <c r="H3" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="J3" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="K3" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="M3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="N3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="O3" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" s="36" t="s">
+      <c r="P3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1665,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>17</v>
@@ -1712,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>18</v>
@@ -1759,7 +1763,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>18</v>
@@ -1806,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>18</v>
@@ -1853,7 +1857,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>16</v>
@@ -1899,14 +1903,12 @@
       <c r="C9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="31" t="s">
-        <v>72</v>
-      </c>
+      <c r="R9" s="31"/>
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="30">
         <v>1</v>
@@ -1949,7 +1951,7 @@
         <v>69</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -2068,7 +2070,7 @@
         <v>69</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -2113,7 +2115,7 @@
         <v>69</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -2160,7 +2162,7 @@
         <v>69</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -2252,12 +2254,12 @@
         <v>69</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="35">
         <v>2</v>
@@ -2302,7 +2304,7 @@
         <v>69</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
@@ -2791,7 +2793,7 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="32">
         <v>3</v>
@@ -2836,7 +2838,7 @@
         <v>69</v>
       </c>
       <c r="S34" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
@@ -2995,7 +2997,7 @@
         <v>47</v>
       </c>
       <c r="P38" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q38" s="27" t="s">
         <v>16</v>
@@ -3042,7 +3044,7 @@
         <v>59</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q39" s="27" t="s">
         <v>16</v>
@@ -3089,7 +3091,7 @@
         <v>47</v>
       </c>
       <c r="P40" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q40" s="27" t="s">
         <v>16</v>
@@ -3324,7 +3326,7 @@
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -3369,7 +3371,7 @@
         <v>69</v>
       </c>
       <c r="S47" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
@@ -3531,7 +3533,7 @@
         <v>16</v>
       </c>
       <c r="Q51" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R51" s="11" t="s">
         <v>18</v>
@@ -3687,7 +3689,7 @@
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" s="30">
         <v>5</v>
@@ -3732,10 +3734,10 @@
         <v>69</v>
       </c>
       <c r="S57" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T57" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
@@ -3798,7 +3800,7 @@
         <v>39</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H59" s="18" t="s">
         <v>16</v>
@@ -3837,7 +3839,7 @@
         <v>16</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
@@ -3898,7 +3900,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="30"/>
       <c r="G61" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H61" s="18" t="s">
         <v>16</v>
@@ -3937,7 +3939,7 @@
         <v>16</v>
       </c>
       <c r="T61" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
@@ -3946,10 +3948,10 @@
         <v>63</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="18" t="s">
@@ -3983,25 +3985,25 @@
         <v>16</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S62" s="10" t="s">
         <v>16</v>
       </c>
       <c r="T62" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C63" s="30"/>
       <c r="D63" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="18" t="s">
@@ -4041,7 +4043,7 @@
         <v>16</v>
       </c>
       <c r="T63" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="2:20" ht="30" x14ac:dyDescent="0.25">
@@ -4050,10 +4052,10 @@
         <v>1</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F64" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="18" t="s">
@@ -4093,7 +4095,7 @@
         <v>16</v>
       </c>
       <c r="T64" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="3:20" x14ac:dyDescent="0.25">
@@ -4102,7 +4104,7 @@
         <v>53</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F65" s="18" t="s">
         <v>46</v>
@@ -4145,7 +4147,7 @@
         <v>16</v>
       </c>
       <c r="T65" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4163,6 +4165,26 @@
     <mergeCell ref="C34:C45"/>
     <mergeCell ref="C10:C17"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9D3B49-8B54-4F87-A182-89A55F86A36F}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/פרויקט גמר CPP.xlsx
+++ b/פרויקט גמר CPP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidM\source\repos\finalProjectCpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F8F2DC-3F08-4C0A-BF9A-05DF33FB403A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3113C9-252C-47A7-95C5-90C3EE6E6207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="4290" windowWidth="14910" windowHeight="5910" activeTab="1" xr2:uid="{D5F3B20F-B123-4529-BBC6-744239AAD04B}"/>
   </bookViews>

--- a/פרויקט גמר CPP.xlsx
+++ b/פרויקט גמר CPP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidM\source\repos\finalProjectCpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3113C9-252C-47A7-95C5-90C3EE6E6207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8831869-A4D6-46D0-B241-CDC92823C74C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="4290" windowWidth="14910" windowHeight="5910" activeTab="1" xr2:uid="{D5F3B20F-B123-4529-BBC6-744239AAD04B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="114">
   <si>
     <t>פרויקט</t>
   </si>
@@ -381,13 +381,50 @@
   <si>
     <t>סופר משימות
 static int taskCt</t>
+  </si>
+  <si>
+    <t>iomanip</t>
+  </si>
+  <si>
+    <t>get_time </t>
+  </si>
+  <si>
+    <r>
+      <t>Get date and time </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(function )</t>
+    </r>
+  </si>
+  <si>
+    <t>put_time </t>
+  </si>
+  <si>
+    <r>
+      <t>Put date and time </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(function )</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +453,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF008000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -437,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -530,11 +592,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="2"/>
@@ -623,6 +695,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -644,8 +719,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1070,11 +1155,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E862EF-A94E-44EF-9A0C-D518F53F1219}">
   <dimension ref="F1:AA12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8:AA11"/>
+    <sheetView rightToLeft="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="19.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1096,12 +1181,12 @@
     <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="6:27">
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="6:27">
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1112,17 +1197,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="6:27">
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:27">
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:27">
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1168,7 +1253,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="6:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:27" ht="60">
       <c r="I7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1218,7 +1303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:27">
       <c r="I8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1277,7 +1362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:27">
       <c r="M9" s="4">
         <v>2</v>
       </c>
@@ -1324,7 +1409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:27">
       <c r="M10" s="4">
         <v>4</v>
       </c>
@@ -1371,7 +1456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:27">
       <c r="M11" s="4">
         <v>3</v>
       </c>
@@ -1418,7 +1503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:27">
       <c r="M12" s="20">
         <v>5</v>
       </c>
@@ -1475,14 +1560,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E481D19-D7AD-4BEB-976A-AE15DC892047}">
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="21.85546875" style="15" bestFit="1" customWidth="1"/>
@@ -1506,7 +1591,7 @@
     <col min="21" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="60">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
@@ -1516,19 +1601,19 @@
       <c r="G1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="37" t="s">
         <v>106</v>
       </c>
       <c r="M1" s="8" t="s">
@@ -1537,7 +1622,7 @@
       <c r="N1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="37" t="s">
         <v>100</v>
       </c>
       <c r="P1" s="8" t="s">
@@ -1556,16 +1641,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
@@ -1608,15 +1693,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="75">
       <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="16"/>
       <c r="F3" s="7" t="s">
         <v>28</v>
@@ -1624,19 +1709,19 @@
       <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="37" t="s">
         <v>96</v>
       </c>
       <c r="M3" s="8" t="s">
@@ -1645,7 +1730,7 @@
       <c r="N3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="37" t="s">
         <v>100</v>
       </c>
       <c r="P3" s="8" t="s">
@@ -1664,7 +1749,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="F4" s="4">
         <v>1</v>
       </c>
@@ -1711,7 +1796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="F5" s="4">
         <v>2</v>
       </c>
@@ -1758,7 +1843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="F6" s="4">
         <v>4</v>
       </c>
@@ -1805,7 +1890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="F7" s="4">
         <v>3</v>
       </c>
@@ -1852,7 +1937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="F8" s="5">
         <v>5</v>
       </c>
@@ -1899,18 +1984,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="58.5" customHeight="1">
       <c r="C9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="B10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="31">
         <v>1</v>
       </c>
       <c r="D10" s="10"/>
@@ -1954,8 +2039,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="30"/>
+    <row r="11" spans="1:20">
+      <c r="C11" s="31"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="14">
@@ -1999,8 +2084,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="30"/>
+    <row r="12" spans="1:20">
+      <c r="C12" s="31"/>
       <c r="D12" s="10" t="s">
         <v>51</v>
       </c>
@@ -2026,8 +2111,8 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="30"/>
+    <row r="13" spans="1:20">
+      <c r="C13" s="31"/>
       <c r="D13" s="10" t="s">
         <v>34</v>
       </c>
@@ -2073,8 +2158,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="30"/>
+    <row r="14" spans="1:20">
+      <c r="C14" s="31"/>
       <c r="D14" s="10" t="s">
         <v>34</v>
       </c>
@@ -2118,12 +2203,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C15" s="30"/>
+    <row r="15" spans="1:20">
+      <c r="C15" s="31"/>
       <c r="D15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="29" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -2165,12 +2250,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="30"/>
+    <row r="16" spans="1:20">
+      <c r="C16" s="31"/>
       <c r="D16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="29" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -2212,8 +2297,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C17" s="30"/>
+    <row r="17" spans="2:19">
+      <c r="C17" s="31"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="18" t="s">
@@ -2257,11 +2342,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19">
       <c r="B20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="36">
         <v>2</v>
       </c>
       <c r="D20" s="10"/>
@@ -2307,8 +2392,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C21" s="35"/>
+    <row r="21" spans="2:19">
+      <c r="C21" s="36"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="17">
@@ -2352,8 +2437,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C22" s="35"/>
+    <row r="22" spans="2:19">
+      <c r="C22" s="36"/>
       <c r="D22" s="10" t="s">
         <v>51</v>
       </c>
@@ -2379,13 +2464,13 @@
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C23" s="35"/>
+    <row r="23" spans="2:19">
+      <c r="C23" s="36"/>
       <c r="D23" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="31" t="s">
         <v>39</v>
       </c>
       <c r="G23" s="10" t="s">
@@ -2426,13 +2511,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C24" s="35"/>
+    <row r="24" spans="2:19">
+      <c r="C24" s="36"/>
       <c r="D24" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="30"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="10" t="s">
         <v>38</v>
       </c>
@@ -2471,13 +2556,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C25" s="35"/>
+    <row r="25" spans="2:19">
+      <c r="C25" s="36"/>
       <c r="D25" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="30"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="10" t="s">
         <v>49</v>
       </c>
@@ -2516,13 +2601,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C26" s="35"/>
+    <row r="26" spans="2:19">
+      <c r="C26" s="36"/>
       <c r="D26" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="30"/>
+      <c r="F26" s="31"/>
       <c r="G26" s="10" t="s">
         <v>48</v>
       </c>
@@ -2561,8 +2646,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C27" s="35"/>
+    <row r="27" spans="2:19">
+      <c r="C27" s="36"/>
       <c r="D27" s="10" t="s">
         <v>52</v>
       </c>
@@ -2608,8 +2693,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C28" s="35"/>
+    <row r="28" spans="2:19">
+      <c r="C28" s="36"/>
       <c r="D28" s="10" t="s">
         <v>53</v>
       </c>
@@ -2655,8 +2740,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C29" s="35"/>
+    <row r="29" spans="2:19">
+      <c r="C29" s="36"/>
       <c r="D29" s="10" t="s">
         <v>53</v>
       </c>
@@ -2700,8 +2785,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C30" s="35"/>
+    <row r="30" spans="2:19">
+      <c r="C30" s="36"/>
       <c r="D30" s="18" t="s">
         <v>53</v>
       </c>
@@ -2747,8 +2832,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C31" s="35"/>
+    <row r="31" spans="2:19">
+      <c r="C31" s="36"/>
       <c r="D31" s="10" t="s">
         <v>63</v>
       </c>
@@ -2776,7 +2861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19">
       <c r="C32" s="22"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -2791,11 +2876,11 @@
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19">
       <c r="B34" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="33">
         <v>3</v>
       </c>
       <c r="D34" s="10"/>
@@ -2841,8 +2926,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="33"/>
+    <row r="35" spans="2:19">
+      <c r="C35" s="34"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="14">
@@ -2886,8 +2971,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C36" s="33"/>
+    <row r="36" spans="2:19">
+      <c r="C36" s="34"/>
       <c r="D36" s="10" t="s">
         <v>51</v>
       </c>
@@ -2913,13 +2998,13 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="33"/>
+    <row r="37" spans="2:19">
+      <c r="C37" s="34"/>
       <c r="D37" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="33" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="10" t="s">
@@ -2962,13 +3047,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="33"/>
+    <row r="38" spans="2:19">
+      <c r="C38" s="34"/>
       <c r="D38" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E38" s="10"/>
-      <c r="F38" s="33"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="10" t="s">
         <v>38</v>
       </c>
@@ -3009,13 +3094,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="33"/>
+    <row r="39" spans="2:19">
+      <c r="C39" s="34"/>
       <c r="D39" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="33"/>
+      <c r="F39" s="34"/>
       <c r="G39" s="10" t="s">
         <v>57</v>
       </c>
@@ -3056,13 +3141,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="33"/>
+    <row r="40" spans="2:19">
+      <c r="C40" s="34"/>
       <c r="D40" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="34"/>
+      <c r="F40" s="35"/>
       <c r="G40" s="10" t="s">
         <v>58</v>
       </c>
@@ -3103,8 +3188,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="33"/>
+    <row r="41" spans="2:19">
+      <c r="C41" s="34"/>
       <c r="D41" s="10" t="s">
         <v>52</v>
       </c>
@@ -3152,8 +3237,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="33"/>
+    <row r="42" spans="2:19">
+      <c r="C42" s="34"/>
       <c r="D42" s="10" t="s">
         <v>53</v>
       </c>
@@ -3201,8 +3286,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C43" s="33"/>
+    <row r="43" spans="2:19">
+      <c r="C43" s="34"/>
       <c r="D43" s="10" t="s">
         <v>53</v>
       </c>
@@ -3248,8 +3333,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C44" s="33"/>
+    <row r="44" spans="2:19">
+      <c r="C44" s="34"/>
       <c r="D44" s="18" t="s">
         <v>53</v>
       </c>
@@ -3295,8 +3380,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C45" s="33"/>
+    <row r="45" spans="2:19">
+      <c r="C45" s="34"/>
       <c r="D45" s="10" t="s">
         <v>63</v>
       </c>
@@ -3324,11 +3409,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19">
       <c r="B47" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C47" s="33">
         <v>4</v>
       </c>
       <c r="D47" s="10"/>
@@ -3374,8 +3459,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C48" s="33"/>
+    <row r="48" spans="2:19">
+      <c r="C48" s="34"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="25">
@@ -3419,8 +3504,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C49" s="33"/>
+    <row r="49" spans="2:20">
+      <c r="C49" s="34"/>
       <c r="D49" s="10" t="s">
         <v>51</v>
       </c>
@@ -3446,13 +3531,13 @@
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C50" s="33"/>
+    <row r="50" spans="2:20">
+      <c r="C50" s="34"/>
       <c r="D50" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="24"/>
-      <c r="F50" s="32" t="s">
+      <c r="F50" s="33" t="s">
         <v>39</v>
       </c>
       <c r="G50" s="10" t="s">
@@ -3495,13 +3580,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C51" s="33"/>
+    <row r="51" spans="2:20">
+      <c r="C51" s="34"/>
       <c r="D51" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E51" s="24"/>
-      <c r="F51" s="34"/>
+      <c r="F51" s="35"/>
       <c r="G51" s="10" t="s">
         <v>38</v>
       </c>
@@ -3542,8 +3627,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C52" s="33"/>
+    <row r="52" spans="2:20">
+      <c r="C52" s="34"/>
       <c r="D52" s="10" t="s">
         <v>52</v>
       </c>
@@ -3591,8 +3676,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C53" s="33"/>
+    <row r="53" spans="2:20">
+      <c r="C53" s="34"/>
       <c r="D53" s="10" t="s">
         <v>53</v>
       </c>
@@ -3640,8 +3725,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C54" s="34"/>
+    <row r="54" spans="2:20">
+      <c r="C54" s="35"/>
       <c r="D54" s="10" t="s">
         <v>53</v>
       </c>
@@ -3687,11 +3772,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:20">
       <c r="B57" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="30">
+      <c r="C57" s="31">
         <v>5</v>
       </c>
       <c r="D57" s="10"/>
@@ -3740,8 +3825,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C58" s="30"/>
+    <row r="58" spans="2:20">
+      <c r="C58" s="31"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="14">
@@ -3790,13 +3875,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C59" s="30"/>
+    <row r="59" spans="2:20">
+      <c r="C59" s="31"/>
       <c r="D59" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="10"/>
-      <c r="F59" s="30" t="s">
+      <c r="F59" s="31" t="s">
         <v>39</v>
       </c>
       <c r="G59" s="18" t="s">
@@ -3842,13 +3927,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C60" s="30"/>
+    <row r="60" spans="2:20">
+      <c r="C60" s="31"/>
       <c r="D60" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="30"/>
+      <c r="F60" s="31"/>
       <c r="G60" s="18" t="s">
         <v>38</v>
       </c>
@@ -3892,13 +3977,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C61" s="30"/>
+    <row r="61" spans="2:20">
+      <c r="C61" s="31"/>
       <c r="D61" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E61" s="10"/>
-      <c r="F61" s="30"/>
+      <c r="F61" s="31"/>
       <c r="G61" s="18" t="s">
         <v>78</v>
       </c>
@@ -3942,8 +4027,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C62" s="30"/>
+    <row r="62" spans="2:20">
+      <c r="C62" s="31"/>
       <c r="D62" s="10" t="s">
         <v>63</v>
       </c>
@@ -3994,8 +4079,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C63" s="30"/>
+    <row r="63" spans="2:20">
+      <c r="C63" s="31"/>
       <c r="D63" s="10" t="s">
         <v>79</v>
       </c>
@@ -4046,8 +4131,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="2:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="C64" s="30"/>
+    <row r="64" spans="2:20" ht="30">
+      <c r="C64" s="31"/>
       <c r="D64" s="10" t="s">
         <v>1</v>
       </c>
@@ -4098,8 +4183,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C65" s="30"/>
+    <row r="65" spans="2:20">
+      <c r="C65" s="31"/>
       <c r="D65" s="10" t="s">
         <v>53</v>
       </c>
@@ -4148,6 +4233,31 @@
       </c>
       <c r="T65" s="10" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20">
+      <c r="B70" s="38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" ht="30">
+      <c r="C71" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" ht="55.5">
+      <c r="C72" s="40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" ht="30">
+      <c r="C73" s="39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" ht="55.5">
+      <c r="C74" s="40" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4165,7 +4275,12 @@
     <mergeCell ref="C34:C45"/>
     <mergeCell ref="C10:C17"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C71" r:id="rId1" display="http://www.cplusplus.com/reference/iomanip/get_time/" xr:uid="{E7BA772D-6CBD-492A-8BA8-CC7342451DC2}"/>
+    <hyperlink ref="C73" r:id="rId2" display="http://www.cplusplus.com/reference/iomanip/put_time/" xr:uid="{D7200F9D-E5F6-49F2-BB7A-88334FF421DA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4177,9 +4292,9 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>107</v>
       </c>

--- a/פרויקט גמר CPP.xlsx
+++ b/פרויקט גמר CPP.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidM\source\repos\finalProjectCpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9809AA-3561-4A1A-8084-552500603B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961EA6E5-85BE-41CF-9679-FB499B0E2618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="14910" windowHeight="5910" activeTab="1" xr2:uid="{D5F3B20F-B123-4529-BBC6-744239AAD04B}"/>
+    <workbookView xWindow="1125" yWindow="3345" windowWidth="18300" windowHeight="11190" activeTab="1" xr2:uid="{D5F3B20F-B123-4529-BBC6-744239AAD04B}"/>
   </bookViews>
   <sheets>
     <sheet name="כללי" sheetId="1" r:id="rId1"/>
     <sheet name="פירוט כלל המחלקות" sheetId="2" r:id="rId2"/>
-    <sheet name="משימות" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="משימות" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="138">
   <si>
     <t>פרויקט</t>
   </si>
@@ -86,9 +87,6 @@
   </si>
   <si>
     <t>שדה 6</t>
-  </si>
-  <si>
-    <t>שדה 7</t>
   </si>
   <si>
     <t>ניהול פרויקט</t>
@@ -510,6 +508,13 @@
   </si>
   <si>
     <t>ביצוע</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>כולל בדיקה
+bool testIncluded</t>
   </si>
 </sst>
 </file>
@@ -566,7 +571,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,6 +587,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="2"/>
@@ -765,6 +776,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1236,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="6:36" x14ac:dyDescent="0.25">
@@ -1250,7 +1270,7 @@
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>7</v>
@@ -1262,7 +1282,7 @@
         <v>9</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>15</v>
@@ -1271,132 +1291,132 @@
         <v>16</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Y5" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="Z5" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AB5" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="AC5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD5" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="AD5" s="26" t="s">
-        <v>96</v>
-      </c>
       <c r="AE5" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF5" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG5" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="AG5" s="26" t="s">
+      <c r="AH5" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="AH5" s="26" t="s">
+      <c r="AI5" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="AI5" s="26" t="s">
-        <v>112</v>
-      </c>
       <c r="AJ5" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="6:36" ht="105" x14ac:dyDescent="0.25">
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="Q6" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="R6" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="S6" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="S6" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="T6" s="8" t="s">
+      <c r="U6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="U6" s="23" t="s">
+      <c r="V6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="W6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="W6" s="8" t="s">
+      <c r="X6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="X6" s="8" t="s">
+      <c r="Y6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="Y6" s="8" t="s">
+      <c r="Z6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Z6" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="AA6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AB6" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC6" s="8" t="s">
+      <c r="AD6" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="AD6" s="26" t="s">
-        <v>90</v>
-      </c>
       <c r="AE6" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG6" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AG6" s="8" t="s">
+      <c r="AH6" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="AH6" s="23" t="s">
+      <c r="AI6" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="AI6" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="AJ6" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="6:36" x14ac:dyDescent="0.25">
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" s="3">
         <v>5</v>
@@ -1405,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M7" s="4">
         <v>1</v>
@@ -1559,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O9" s="30" t="s">
         <v>14</v>
@@ -1781,7 +1801,7 @@
         <v>6</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>12</v>
@@ -1855,7 +1875,7 @@
         <v>7</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>12</v>
@@ -1926,7 +1946,7 @@
     </row>
     <row r="20" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1944,9 +1964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E481D19-D7AD-4BEB-976A-AE15DC892047}">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J11" sqref="J11"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I40" sqref="I39:U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,73 +1995,73 @@
       <c r="C1" s="28"/>
       <c r="D1" s="6"/>
       <c r="E1" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="R1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="26" t="s">
-        <v>90</v>
-      </c>
       <c r="V1" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Z1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="AA1" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
@@ -2049,7 +2069,7 @@
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="6" t="s">
@@ -2062,7 +2082,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>15</v>
@@ -2071,52 +2091,52 @@
         <v>16</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="Q2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="T2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="26" t="s">
-        <v>96</v>
-      </c>
       <c r="V2" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W2" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="Y2" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Z2" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="Z2" s="26" t="s">
-        <v>112</v>
-      </c>
       <c r="AA2" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -2281,7 +2301,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>14</v>
@@ -2512,7 +2532,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
@@ -2589,7 +2609,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>12</v>
@@ -2669,79 +2689,79 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="H11" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="32" t="s">
-        <v>70</v>
-      </c>
       <c r="I11" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="S11" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="T11" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="U11" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="V11" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="W11" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y11" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z11" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA11" s="33" t="s">
         <v>113</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q11" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="R11" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="S11" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="T11" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="U11" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="V11" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="W11" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="X11" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y11" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z11" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA11" s="33" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
@@ -2760,7 +2780,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -2769,68 +2789,68 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="O12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="P12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="Q12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S12" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="T12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="U12" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="U12" s="26" t="s">
-        <v>96</v>
-      </c>
       <c r="V12" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W12" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="X12" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="X12" s="26" t="s">
+      <c r="Y12" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="Y12" s="26" t="s">
+      <c r="Z12" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="Z12" s="26" t="s">
-        <v>112</v>
-      </c>
       <c r="AA12" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -2857,20 +2877,20 @@
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>9</v>
@@ -2894,10 +2914,10 @@
         <v>12</v>
       </c>
       <c r="O14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="Q14" s="13" t="s">
         <v>12</v>
@@ -2936,21 +2956,21 @@
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>12</v>
@@ -2971,10 +2991,10 @@
         <v>12</v>
       </c>
       <c r="O15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="Q15" s="13" t="s">
         <v>12</v>
@@ -3013,20 +3033,20 @@
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>9</v>
@@ -3050,10 +3070,10 @@
         <v>12</v>
       </c>
       <c r="O16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="Q16" s="13" t="s">
         <v>12</v>
@@ -3092,20 +3112,20 @@
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>9</v>
@@ -3173,10 +3193,10 @@
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>12</v>
@@ -3206,10 +3226,10 @@
         <v>12</v>
       </c>
       <c r="O18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="Q18" s="13" t="s">
         <v>12</v>
@@ -3251,79 +3271,79 @@
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="H20" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="32" t="s">
-        <v>70</v>
-      </c>
       <c r="I20" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="O20" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q20" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="R20" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="S20" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="T20" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="U20" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="V20" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="W20" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="X20" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y20" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z20" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA20" s="33" t="s">
         <v>113</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="M20" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="O20" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="P20" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="R20" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="S20" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="T20" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="U20" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="V20" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="W20" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="X20" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y20" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z20" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA20" s="33" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="30" x14ac:dyDescent="0.25">
@@ -3342,7 +3362,7 @@
         <v>9</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>15</v>
@@ -3351,68 +3371,68 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="O21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="P21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P21" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="Q21" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S21" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S21" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="T21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="U21" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="U21" s="26" t="s">
-        <v>96</v>
-      </c>
       <c r="V21" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W21" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="X21" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="X21" s="26" t="s">
+      <c r="Y21" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="Y21" s="26" t="s">
+      <c r="Z21" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="Z21" s="26" t="s">
-        <v>112</v>
-      </c>
       <c r="AA21" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
@@ -3439,14 +3459,14 @@
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>14</v>
@@ -3458,7 +3478,7 @@
         <v>14</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>15</v>
@@ -3512,18 +3532,18 @@
         <v>12</v>
       </c>
       <c r="AA23" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="20"/>
       <c r="E24" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>14</v>
@@ -3535,10 +3555,10 @@
         <v>14</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>12</v>
@@ -3595,12 +3615,12 @@
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="20"/>
       <c r="E25" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>14</v>
@@ -3612,7 +3632,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>15</v>
@@ -3672,12 +3692,12 @@
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="20"/>
       <c r="E26" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>14</v>
@@ -3689,10 +3709,10 @@
         <v>14</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>12</v>
@@ -3749,13 +3769,13 @@
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17" t="s">
@@ -3828,13 +3848,13 @@
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17" t="s">
@@ -3907,11 +3927,11 @@
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17" t="s">
@@ -3984,20 +4004,20 @@
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="D30" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>12</v>
@@ -4063,11 +4083,11 @@
     <row r="31" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -4106,19 +4126,19 @@
         <v>12</v>
       </c>
       <c r="W31" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="X31" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="X31" s="26" t="s">
+      <c r="Y31" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="Y31" s="26" t="s">
+      <c r="Z31" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="26" t="s">
-        <v>112</v>
-      </c>
       <c r="AA31" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
@@ -4131,79 +4151,79 @@
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F33" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="H33" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="32" t="s">
-        <v>70</v>
-      </c>
       <c r="I33" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L33" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M33" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="N33" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="O33" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="P33" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q33" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="R33" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="S33" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="T33" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="U33" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="V33" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="W33" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="X33" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y33" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z33" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA33" s="33" t="s">
         <v>113</v>
-      </c>
-      <c r="J33" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="K33" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L33" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="M33" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="N33" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="O33" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="P33" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q33" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="R33" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="S33" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="T33" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="U33" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="V33" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="W33" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="X33" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y33" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z33" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA33" s="33" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="30" x14ac:dyDescent="0.25">
@@ -4222,7 +4242,7 @@
         <v>9</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>15</v>
@@ -4231,68 +4251,68 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N34" s="10" t="s">
+      <c r="O34" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O34" s="10" t="s">
+      <c r="P34" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P34" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="Q34" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R34" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S34" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S34" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="T34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="U34" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="U34" s="26" t="s">
-        <v>96</v>
-      </c>
       <c r="V34" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W34" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="X34" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="X34" s="26" t="s">
+      <c r="Y34" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="Y34" s="26" t="s">
+      <c r="Z34" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="Z34" s="26" t="s">
-        <v>112</v>
-      </c>
       <c r="AA34" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
@@ -4300,7 +4320,7 @@
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
+      <c r="M35" s="43"/>
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
@@ -4341,14 +4361,14 @@
     <row r="36" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>14</v>
@@ -4365,14 +4385,14 @@
       <c r="J36" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="10" t="s">
-        <v>17</v>
+      <c r="K36" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="M36" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="N36" s="14" t="s">
         <v>12</v>
@@ -4387,10 +4407,10 @@
         <v>12</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T36" s="17" t="s">
         <v>12</v>
@@ -4420,12 +4440,12 @@
     <row r="37" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="20"/>
       <c r="E37" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>14</v>
@@ -4443,13 +4463,13 @@
         <v>12</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="M37" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="N37" s="15" t="s">
         <v>12</v>
@@ -4467,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T37" s="17" t="s">
         <v>12</v>
@@ -4497,12 +4517,12 @@
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="20"/>
       <c r="E38" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>14</v>
@@ -4520,13 +4540,13 @@
         <v>12</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M38" s="13" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="M38" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>12</v>
@@ -4544,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T38" s="17" t="s">
         <v>12</v>
@@ -4574,12 +4594,12 @@
     <row r="39" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="20"/>
       <c r="E39" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>14</v>
@@ -4596,14 +4616,14 @@
       <c r="J39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K39" s="10" t="s">
-        <v>17</v>
+      <c r="K39" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="M39" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="N39" s="15" t="s">
         <v>12</v>
@@ -4618,10 +4638,10 @@
         <v>12</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T39" s="17" t="s">
         <v>12</v>
@@ -4651,13 +4671,13 @@
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17" t="s">
@@ -4675,14 +4695,14 @@
       <c r="J40" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="10" t="s">
-        <v>17</v>
+      <c r="K40" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="M40" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="N40" s="14" t="s">
         <v>12</v>
@@ -4730,13 +4750,13 @@
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="17" t="s">
@@ -4754,14 +4774,14 @@
       <c r="J41" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K41" s="10" t="s">
-        <v>17</v>
+      <c r="K41" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M41" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="M41" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="N41" s="14" t="s">
         <v>12</v>
@@ -4809,11 +4829,11 @@
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="17" t="s">
@@ -4831,13 +4851,13 @@
       <c r="J42" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K42" s="10" t="s">
-        <v>17</v>
+      <c r="K42" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M42" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M42" s="43" t="s">
         <v>12</v>
       </c>
       <c r="N42" s="13" t="s">
@@ -4886,20 +4906,20 @@
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="D43" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>12</v>
@@ -4916,7 +4936,7 @@
       <c r="L43" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="13" t="s">
+      <c r="M43" s="43" t="s">
         <v>12</v>
       </c>
       <c r="N43" s="13"/>
@@ -4963,11 +4983,11 @@
     <row r="44" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -4979,7 +4999,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
+      <c r="M44" s="43"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17" t="s">
         <v>12</v>
@@ -4991,19 +5011,19 @@
         <v>12</v>
       </c>
       <c r="R44" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S44" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S44" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="T44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="U44" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="U44" s="26" t="s">
-        <v>96</v>
-      </c>
       <c r="V44" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W44" s="17" t="s">
         <v>12</v>
@@ -5031,79 +5051,79 @@
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F46" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G46" s="32" t="s">
+      <c r="H46" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="32" t="s">
-        <v>70</v>
-      </c>
       <c r="I46" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J46" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L46" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="M46" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="N46" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="O46" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="P46" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q46" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="R46" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="S46" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="T46" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="U46" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="V46" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="W46" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="X46" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y46" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z46" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA46" s="33" t="s">
         <v>113</v>
-      </c>
-      <c r="J46" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="K46" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L46" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="M46" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="N46" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="O46" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="P46" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q46" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="R46" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="S46" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="T46" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="U46" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="V46" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="W46" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="X46" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y46" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z46" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA46" s="33" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="30" x14ac:dyDescent="0.25">
@@ -5122,7 +5142,7 @@
         <v>9</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>15</v>
@@ -5131,68 +5151,68 @@
         <v>16</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M47" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="N47" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="N47" s="10" t="s">
+      <c r="O47" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O47" s="10" t="s">
+      <c r="P47" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P47" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="Q47" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R47" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S47" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S47" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="T47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="U47" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="U47" s="26" t="s">
-        <v>96</v>
-      </c>
       <c r="V47" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W47" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="X47" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="X47" s="26" t="s">
+      <c r="Y47" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="Y47" s="26" t="s">
+      <c r="Z47" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="Z47" s="26" t="s">
-        <v>112</v>
-      </c>
       <c r="AA47" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -5200,8 +5220,8 @@
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
       <c r="O48" s="17"/>
       <c r="P48" s="17"/>
       <c r="Q48" s="17"/>
@@ -5219,14 +5239,14 @@
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>14</v>
@@ -5249,11 +5269,11 @@
       <c r="L49" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="10" t="s">
+      <c r="M49" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="N49" s="42" t="s">
         <v>51</v>
-      </c>
-      <c r="N49" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="O49" s="10" t="s">
         <v>14</v>
@@ -5298,12 +5318,12 @@
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="20"/>
       <c r="E50" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>14</v>
@@ -5326,11 +5346,11 @@
       <c r="L50" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M50" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N50" s="13" t="s">
-        <v>55</v>
+      <c r="M50" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="N50" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="O50" s="10" t="s">
         <v>14</v>
@@ -5375,13 +5395,13 @@
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17" t="s">
@@ -5405,11 +5425,11 @@
       <c r="L51" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M51" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>52</v>
+      <c r="M51" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="O51" s="10" t="s">
         <v>14</v>
@@ -5454,13 +5474,13 @@
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17" t="s">
@@ -5484,11 +5504,11 @@
       <c r="L52" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M52" s="10" t="s">
+      <c r="M52" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="N52" s="42" t="s">
         <v>51</v>
-      </c>
-      <c r="N52" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="O52" s="17" t="s">
         <v>12</v>
@@ -5533,11 +5553,11 @@
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17" t="s">
@@ -5561,11 +5581,11 @@
       <c r="L53" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M53" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N53" s="10" t="s">
-        <v>52</v>
+      <c r="M53" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="O53" s="17" t="s">
         <v>12</v>
@@ -5617,79 +5637,79 @@
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F55" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G55" s="32" t="s">
+      <c r="H55" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H55" s="32" t="s">
-        <v>70</v>
-      </c>
       <c r="I55" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J55" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K55" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L55" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M55" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N55" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="O55" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="P55" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q55" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="R55" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="S55" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="T55" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="U55" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="V55" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="W55" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="X55" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y55" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z55" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA55" s="33" t="s">
         <v>113</v>
-      </c>
-      <c r="J55" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="K55" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L55" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="M55" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="N55" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="O55" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="P55" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q55" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="R55" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="S55" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="T55" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="U55" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="V55" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="W55" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="X55" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y55" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z55" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA55" s="33" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="30" x14ac:dyDescent="0.25">
@@ -5708,7 +5728,7 @@
         <v>9</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>15</v>
@@ -5717,65 +5737,65 @@
         <v>16</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N56" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="O56" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O56" s="10" t="s">
+      <c r="P56" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P56" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="Q56" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R56" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S56" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S56" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="T56" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="U56" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="U56" s="26" t="s">
-        <v>96</v>
-      </c>
       <c r="V56" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W56" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="X56" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="X56" s="26" t="s">
+      <c r="Y56" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="Y56" s="26" t="s">
+      <c r="Z56" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="Z56" s="26" t="s">
-        <v>112</v>
-      </c>
       <c r="AA56" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>12</v>
@@ -5805,13 +5825,13 @@
         <v>12</v>
       </c>
       <c r="O57" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P57" s="10" t="s">
         <v>12</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R57" s="13" t="s">
         <v>12</v>
@@ -5847,12 +5867,12 @@
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="20"/>
       <c r="E58" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>12</v>
@@ -5924,12 +5944,12 @@
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="20"/>
       <c r="E59" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>12</v>
@@ -5965,7 +5985,7 @@
         <v>12</v>
       </c>
       <c r="Q59" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R59" s="13" t="s">
         <v>12</v>
@@ -6001,13 +6021,13 @@
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E60" s="17"/>
       <c r="F60" s="13" t="s">
@@ -6038,13 +6058,13 @@
         <v>12</v>
       </c>
       <c r="O60" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P60" s="17" t="s">
         <v>12</v>
       </c>
       <c r="Q60" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R60" s="13" t="s">
         <v>12</v>
@@ -6080,13 +6100,13 @@
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="13" t="s">
@@ -6117,13 +6137,13 @@
         <v>12</v>
       </c>
       <c r="O61" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P61" s="17" t="s">
         <v>12</v>
       </c>
       <c r="Q61" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R61" s="13" t="s">
         <v>12</v>
@@ -6162,10 +6182,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="13" t="s">
@@ -6196,13 +6216,13 @@
         <v>12</v>
       </c>
       <c r="O62" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P62" s="17" t="s">
         <v>12</v>
       </c>
       <c r="Q62" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R62" s="13" t="s">
         <v>12</v>
@@ -6238,13 +6258,13 @@
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="13" t="s">
@@ -6281,7 +6301,7 @@
         <v>12</v>
       </c>
       <c r="Q63" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R63" s="13" t="s">
         <v>12</v>
@@ -6324,79 +6344,79 @@
       </c>
       <c r="B65" s="17"/>
       <c r="C65" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F65" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G65" s="32" t="s">
+      <c r="H65" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H65" s="32" t="s">
-        <v>70</v>
-      </c>
       <c r="I65" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J65" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K65" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L65" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M65" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N65" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="O65" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="P65" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q65" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="R65" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="S65" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="T65" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="U65" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="V65" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="W65" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="X65" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y65" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z65" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA65" s="33" t="s">
         <v>113</v>
-      </c>
-      <c r="J65" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="K65" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L65" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="M65" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="N65" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="O65" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="P65" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q65" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="R65" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="S65" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="T65" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="U65" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="V65" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="W65" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="X65" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y65" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z65" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA65" s="33" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:27" ht="30" x14ac:dyDescent="0.25">
@@ -6415,7 +6435,7 @@
         <v>9</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>15</v>
@@ -6424,65 +6444,65 @@
         <v>16</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M66" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N66" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N66" s="10" t="s">
+      <c r="O66" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O66" s="10" t="s">
+      <c r="P66" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P66" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="Q66" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R66" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S66" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S66" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="T66" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="U66" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="U66" s="26" t="s">
-        <v>96</v>
-      </c>
       <c r="V66" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W66" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="X66" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="X66" s="26" t="s">
+      <c r="Y66" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="Y66" s="26" t="s">
+      <c r="Z66" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="Z66" s="26" t="s">
-        <v>112</v>
-      </c>
       <c r="AA66" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
       <c r="B67" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67" s="17"/>
       <c r="D67" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F67" s="13" t="s">
         <v>12</v>
@@ -6527,13 +6547,13 @@
         <v>12</v>
       </c>
       <c r="T67" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="U67" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="U67" s="13" t="s">
-        <v>96</v>
-      </c>
       <c r="V67" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W67" s="13" t="s">
         <v>12</v>
@@ -6554,12 +6574,12 @@
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
       <c r="B68" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
       <c r="E68" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F68" s="13" t="s">
         <v>12</v>
@@ -6607,10 +6627,10 @@
         <v>0</v>
       </c>
       <c r="U68" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V68" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W68" s="13" t="s">
         <v>12</v>
@@ -6659,79 +6679,79 @@
       </c>
       <c r="B70" s="17"/>
       <c r="C70" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F70" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G70" s="32" t="s">
+      <c r="H70" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H70" s="32" t="s">
-        <v>70</v>
-      </c>
       <c r="I70" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J70" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K70" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L70" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M70" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N70" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="O70" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="P70" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q70" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="R70" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="S70" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="T70" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="U70" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="V70" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="W70" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="X70" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y70" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z70" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA70" s="33" t="s">
         <v>113</v>
-      </c>
-      <c r="J70" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="K70" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L70" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="M70" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="N70" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="O70" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="P70" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q70" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="R70" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="S70" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="T70" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="U70" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="V70" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="W70" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="X70" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y70" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z70" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA70" s="33" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:27" ht="30" x14ac:dyDescent="0.25">
@@ -6750,7 +6770,7 @@
         <v>9</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>15</v>
@@ -6759,65 +6779,65 @@
         <v>16</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M71" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N71" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N71" s="10" t="s">
+      <c r="O71" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O71" s="10" t="s">
+      <c r="P71" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P71" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="Q71" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R71" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S71" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S71" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="T71" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="U71" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="U71" s="26" t="s">
-        <v>96</v>
-      </c>
       <c r="V71" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W71" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="X71" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="X71" s="26" t="s">
+      <c r="Y71" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="Y71" s="26" t="s">
+      <c r="Z71" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="Z71" s="26" t="s">
-        <v>112</v>
-      </c>
       <c r="AA71" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
       <c r="B72" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C72" s="17"/>
       <c r="D72" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F72" s="13" t="s">
         <v>12</v>
@@ -6871,16 +6891,16 @@
         <v>12</v>
       </c>
       <c r="W72" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="X72" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="X72" s="26" t="s">
+      <c r="Y72" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="Y72" s="26" t="s">
+      <c r="Z72" s="26" t="s">
         <v>111</v>
-      </c>
-      <c r="Z72" s="26" t="s">
-        <v>112</v>
       </c>
       <c r="AA72" s="13" t="s">
         <v>12</v>
@@ -6889,12 +6909,12 @@
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
       <c r="B73" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
       <c r="E73" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>12</v>
@@ -6948,16 +6968,16 @@
         <v>12</v>
       </c>
       <c r="W73" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="X73" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y73" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="X73" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y73" s="13" t="s">
+      <c r="Z73" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="Z73" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="AA73" s="13" t="s">
         <v>12</v>
@@ -6965,22 +6985,22 @@
     </row>
     <row r="74" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:27" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A75" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:27" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -7017,11 +7037,580 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB3E67D-61A3-4949-8AB9-DD7E70FE88C7}">
+  <dimension ref="A17:Q28"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="17" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>2</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="O28" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q28" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D20:D23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9D3B49-8B54-4F87-A182-89A55F86A36F}">
   <dimension ref="B3:D7"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7031,13 +7620,13 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>135</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -7045,16 +7634,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="37"/>
+        <v>130</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="37">
         <v>2</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>13</v>
@@ -7065,7 +7656,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>13</v>
@@ -7076,7 +7667,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" s="37"/>
     </row>

--- a/פרויקט גמר CPP.xlsx
+++ b/פרויקט גמר CPP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidM\source\repos\finalProjectCpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961EA6E5-85BE-41CF-9679-FB499B0E2618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854CD132-CAF2-45F8-B40F-CA3D38F5C861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="3345" windowWidth="18300" windowHeight="11190" activeTab="1" xr2:uid="{D5F3B20F-B123-4529-BBC6-744239AAD04B}"/>
   </bookViews>
@@ -571,7 +571,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +593,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,7 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="2"/>
@@ -699,12 +705,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -718,9 +718,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -786,6 +783,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1269,7 +1299,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="6"/>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="19" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="6" t="s">
@@ -1317,25 +1347,25 @@
       <c r="AC5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AD5" s="26" t="s">
+      <c r="AD5" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="AE5" s="26" t="s">
+      <c r="AE5" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="AF5" s="26" t="s">
+      <c r="AF5" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="AG5" s="26" t="s">
+      <c r="AG5" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="AH5" s="26" t="s">
+      <c r="AH5" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="AI5" s="26" t="s">
+      <c r="AI5" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AJ5" s="29" t="s">
+      <c r="AJ5" s="26" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1346,26 +1376,26 @@
       <c r="M6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23" t="s">
+      <c r="N6" s="19"/>
+      <c r="O6" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="23" t="s">
+      <c r="S6" s="20" t="s">
         <v>78</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="23" t="s">
+      <c r="U6" s="20" t="s">
         <v>72</v>
       </c>
       <c r="V6" s="8" t="s">
@@ -1392,10 +1422,10 @@
       <c r="AC6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AD6" s="26" t="s">
+      <c r="AD6" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AE6" s="26" t="s">
+      <c r="AE6" s="23" t="s">
         <v>96</v>
       </c>
       <c r="AF6" s="8" t="s">
@@ -1404,10 +1434,10 @@
       <c r="AG6" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AH6" s="23" t="s">
+      <c r="AH6" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="AI6" s="23" t="s">
+      <c r="AI6" s="20" t="s">
         <v>107</v>
       </c>
       <c r="AJ6" s="8" t="s">
@@ -1433,13 +1463,13 @@
       <c r="N7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="O7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="27" t="s">
         <v>13</v>
       </c>
       <c r="R7" s="4" t="s">
@@ -1507,19 +1537,19 @@
       <c r="N8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="30" t="s">
+      <c r="O8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="27" t="s">
         <v>13</v>
       </c>
       <c r="T8" s="5" t="s">
@@ -1534,10 +1564,10 @@
       <c r="W8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y8" s="31" t="s">
+      <c r="X8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" s="28" t="s">
         <v>14</v>
       </c>
       <c r="Z8" s="5" t="s">
@@ -1570,7 +1600,7 @@
       <c r="AI8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AJ8" s="31" t="s">
+      <c r="AJ8" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1581,22 +1611,22 @@
       <c r="N9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" s="31" t="s">
+      <c r="O9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="28" t="s">
         <v>13</v>
       </c>
       <c r="U9" s="5" t="s">
@@ -1605,13 +1635,13 @@
       <c r="V9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="W9" s="31" t="s">
+      <c r="W9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y9" s="31" t="s">
+      <c r="X9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="28" t="s">
         <v>14</v>
       </c>
       <c r="Z9" s="5" t="s">
@@ -1644,7 +1674,7 @@
       <c r="AI9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AJ9" s="31" t="s">
+      <c r="AJ9" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1655,13 +1685,13 @@
       <c r="N10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="31" t="s">
+      <c r="O10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="28" t="s">
         <v>14</v>
       </c>
       <c r="R10" s="5" t="s">
@@ -1673,28 +1703,28 @@
       <c r="T10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="31" t="s">
+      <c r="U10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="31" t="s">
+      <c r="V10" s="28" t="s">
         <v>13</v>
       </c>
       <c r="W10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y10" s="31" t="s">
+      <c r="X10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="28" t="s">
         <v>14</v>
       </c>
       <c r="Z10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="31" t="s">
+      <c r="AA10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AB10" s="31" t="s">
+      <c r="AB10" s="28" t="s">
         <v>13</v>
       </c>
       <c r="AC10" s="5" t="s">
@@ -1756,13 +1786,13 @@
       <c r="W11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X11" s="31" t="s">
+      <c r="X11" s="28" t="s">
         <v>13</v>
       </c>
       <c r="Y11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="31" t="s">
+      <c r="Z11" s="28" t="s">
         <v>13</v>
       </c>
       <c r="AA11" s="5" t="s">
@@ -1845,13 +1875,13 @@
       <c r="AB12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AC12" s="31" t="s">
+      <c r="AC12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AD12" s="31" t="s">
+      <c r="AD12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AE12" s="30" t="s">
+      <c r="AE12" s="27" t="s">
         <v>13</v>
       </c>
       <c r="AF12" s="5" t="s">
@@ -1931,13 +1961,13 @@
       <c r="AF13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AG13" s="31" t="s">
+      <c r="AG13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AH13" s="31" t="s">
+      <c r="AH13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AI13" s="31" t="s">
+      <c r="AI13" s="28" t="s">
         <v>13</v>
       </c>
       <c r="AJ13" s="5" t="s">
@@ -1964,9 +1994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E481D19-D7AD-4BEB-976A-AE15DC892047}">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I40" sqref="I39:U40"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D49" sqref="D49:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,8 +2011,8 @@
     <col min="9" max="9" width="12.5703125" style="12" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="12"/>
     <col min="12" max="12" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="47" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="47" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.85546875" style="12" customWidth="1"/>
     <col min="16" max="16" width="23.5703125" style="12" customWidth="1"/>
     <col min="17" max="17" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
@@ -1990,38 +2020,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>78</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="43" t="s">
         <v>74</v>
       </c>
       <c r="O1" s="8" t="s">
@@ -2042,10 +2072,10 @@
       <c r="T1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="23" t="s">
         <v>96</v>
       </c>
       <c r="W1" s="8" t="s">
@@ -2054,10 +2084,10 @@
       <c r="X1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="20" t="s">
         <v>107</v>
       </c>
       <c r="AA1" s="8" t="s">
@@ -2065,13 +2095,13 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
@@ -2093,10 +2123,10 @@
       <c r="L2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="44" t="s">
         <v>51</v>
       </c>
       <c r="O2" s="9" t="s">
@@ -2117,45 +2147,45 @@
       <c r="T2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="W2" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="X2" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="Z2" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="AA2" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="27" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -2170,10 +2200,10 @@
       <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="M3" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="45" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -2217,28 +2247,28 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="4">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="30" t="s">
+      <c r="F4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="27" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -2247,16 +2277,16 @@
       <c r="L4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="31" t="s">
+      <c r="M4" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="28" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="5" t="s">
@@ -2289,51 +2319,51 @@
       <c r="Z4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="31" t="s">
+      <c r="AA4" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="4">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="31" t="s">
+      <c r="F5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="31" t="s">
+      <c r="M5" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="31" t="s">
+      <c r="O5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="Q5" s="5" t="s">
@@ -2366,27 +2396,27 @@
       <c r="Z5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" s="31" t="s">
+      <c r="AA5" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="4">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="31" t="s">
+      <c r="F6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -2398,28 +2428,28 @@
       <c r="K6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="31" t="s">
+      <c r="N6" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="28" t="s">
         <v>14</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="31" t="s">
+      <c r="R6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="31" t="s">
+      <c r="S6" s="28" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="5" t="s">
@@ -2448,9 +2478,9 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="5">
         <v>5</v>
       </c>
@@ -2478,19 +2508,19 @@
       <c r="L7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="31" t="s">
+      <c r="M7" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="28" t="s">
         <v>13</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="31" t="s">
+      <c r="Q7" s="28" t="s">
         <v>13</v>
       </c>
       <c r="R7" s="5" t="s">
@@ -2525,9 +2555,9 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="5">
         <v>6</v>
       </c>
@@ -2555,10 +2585,10 @@
       <c r="L8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="5" t="s">
+      <c r="M8" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="45" t="s">
         <v>12</v>
       </c>
       <c r="O8" s="5" t="s">
@@ -2576,13 +2606,13 @@
       <c r="S8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="31" t="s">
+      <c r="T8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="31" t="s">
+      <c r="U8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="30" t="s">
+      <c r="V8" s="27" t="s">
         <v>13</v>
       </c>
       <c r="W8" s="5" t="s">
@@ -2602,9 +2632,9 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="5">
         <v>7</v>
       </c>
@@ -2632,10 +2662,10 @@
       <c r="L9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="5" t="s">
+      <c r="M9" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="45" t="s">
         <v>12</v>
       </c>
       <c r="O9" s="5" t="s">
@@ -2665,13 +2695,13 @@
       <c r="W9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X9" s="31" t="s">
+      <c r="X9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="Y9" s="31" t="s">
+      <c r="Y9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="Z9" s="31" t="s">
+      <c r="Z9" s="28" t="s">
         <v>13</v>
       </c>
       <c r="AA9" s="5" t="s">
@@ -2679,97 +2709,97 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="49">
         <v>1</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="38" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="35" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="33" t="s">
+      <c r="N11" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="33" t="s">
+      <c r="P11" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="Q11" s="33" t="s">
+      <c r="Q11" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R11" s="33" t="s">
+      <c r="R11" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S11" s="33" t="s">
+      <c r="S11" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="33" t="s">
+      <c r="T11" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="U11" s="26" t="s">
+      <c r="U11" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="V11" s="26" t="s">
+      <c r="V11" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="W11" s="33" t="s">
+      <c r="W11" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="X11" s="33" t="s">
+      <c r="X11" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="Y11" s="32" t="s">
+      <c r="Y11" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="Z11" s="32" t="s">
+      <c r="Z11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AA11" s="33" t="s">
+      <c r="AA11" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
@@ -2791,10 +2821,10 @@
       <c r="L12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="39" t="s">
         <v>51</v>
       </c>
       <c r="O12" s="10" t="s">
@@ -2815,84 +2845,84 @@
       <c r="T12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="U12" s="26" t="s">
+      <c r="U12" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="V12" s="26" t="s">
+      <c r="V12" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="W12" s="26" t="s">
+      <c r="W12" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X12" s="26" t="s">
+      <c r="X12" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Y12" s="26" t="s">
+      <c r="Y12" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z12" s="26" t="s">
+      <c r="Z12" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA12" s="29" t="s">
+      <c r="AA12" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="15" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="13" t="s">
@@ -2907,10 +2937,10 @@
       <c r="L14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="13" t="s">
+      <c r="M14" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O14" s="10" t="s">
@@ -2954,13 +2984,13 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="13" t="s">
@@ -2984,10 +3014,10 @@
       <c r="L15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="13" t="s">
+      <c r="M15" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O15" s="10" t="s">
@@ -3031,24 +3061,24 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="15" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -3063,10 +3093,10 @@
       <c r="L16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="13" t="s">
+      <c r="M16" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O16" s="10" t="s">
@@ -3110,24 +3140,24 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="15" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="13" t="s">
@@ -3142,16 +3172,16 @@
       <c r="L17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="17" t="s">
+      <c r="M17" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="15" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="13" t="s">
@@ -3189,13 +3219,13 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="13" t="s">
@@ -3219,10 +3249,10 @@
       <c r="L18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="13" t="s">
+      <c r="M18" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O18" s="10" t="s">
@@ -3266,92 +3296,92 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="51">
         <v>2</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="M20" s="33" t="s">
+      <c r="M20" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="N20" s="33" t="s">
+      <c r="N20" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="33" t="s">
+      <c r="O20" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="P20" s="33" t="s">
+      <c r="P20" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="Q20" s="33" t="s">
+      <c r="Q20" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R20" s="33" t="s">
+      <c r="R20" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S20" s="33" t="s">
+      <c r="S20" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="T20" s="33" t="s">
+      <c r="T20" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="U20" s="26" t="s">
+      <c r="U20" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="V20" s="26" t="s">
+      <c r="V20" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="W20" s="33" t="s">
+      <c r="W20" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="X20" s="33" t="s">
+      <c r="X20" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="Y20" s="32" t="s">
+      <c r="Y20" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="Z20" s="32" t="s">
+      <c r="Z20" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AA20" s="33" t="s">
+      <c r="AA20" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
@@ -3373,10 +3403,10 @@
       <c r="L21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="39" t="s">
         <v>51</v>
       </c>
       <c r="O21" s="10" t="s">
@@ -3397,84 +3427,84 @@
       <c r="T21" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="U21" s="26" t="s">
+      <c r="U21" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="V21" s="26" t="s">
+      <c r="V21" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="W21" s="26" t="s">
+      <c r="W21" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X21" s="26" t="s">
+      <c r="X21" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Y21" s="26" t="s">
+      <c r="Y21" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z21" s="26" t="s">
+      <c r="Z21" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA21" s="29" t="s">
+      <c r="AA21" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="20" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="17" t="s">
+      <c r="F23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="7" t="s">
@@ -3489,10 +3519,10 @@
       <c r="L23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="13" t="s">
+      <c r="M23" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O23" s="10" t="s">
@@ -3531,27 +3561,27 @@
       <c r="Z23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AA23" s="29" t="s">
+      <c r="AA23" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="17" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="17" t="s">
+      <c r="F24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="13" t="s">
@@ -3566,10 +3596,10 @@
       <c r="L24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="13" t="s">
+      <c r="M24" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O24" s="10" t="s">
@@ -3608,27 +3638,27 @@
       <c r="Z24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AA24" s="27">
+      <c r="AA24" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="17" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="17" t="s">
+      <c r="F25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="13" t="s">
@@ -3643,10 +3673,10 @@
       <c r="L25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" s="13" t="s">
+      <c r="M25" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O25" s="10" t="s">
@@ -3685,27 +3715,27 @@
       <c r="Z25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AA25" s="27">
+      <c r="AA25" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="17" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="17" t="s">
+      <c r="F26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="13" t="s">
@@ -3720,10 +3750,10 @@
       <c r="L26" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="13" t="s">
+      <c r="M26" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O26" s="10" t="s">
@@ -3762,29 +3792,29 @@
       <c r="Z26" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AA26" s="36">
+      <c r="AA26" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="17" t="s">
+      <c r="E27" s="15"/>
+      <c r="F27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="7" t="s">
@@ -3799,10 +3829,10 @@
       <c r="L27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="13" t="s">
+      <c r="M27" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O27" s="10" t="s">
@@ -3846,24 +3876,24 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="17" t="s">
+      <c r="E28" s="15"/>
+      <c r="F28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="7" t="s">
@@ -3878,10 +3908,10 @@
       <c r="L28" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="13" t="s">
+      <c r="M28" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O28" s="10" t="s">
@@ -3925,22 +3955,22 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="17" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="7" t="s">
@@ -3955,10 +3985,10 @@
       <c r="L29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29" s="13" t="s">
+      <c r="M29" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O29" s="10" t="s">
@@ -4002,17 +4032,17 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="13" t="s">
         <v>12</v>
       </c>
@@ -4034,16 +4064,16 @@
       <c r="L30" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O30" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P30" s="17" t="s">
+      <c r="M30" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="15" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="13" t="s">
@@ -4081,30 +4111,30 @@
       </c>
     </row>
     <row r="31" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
       <c r="I31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P31" s="17" t="s">
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="15" t="s">
         <v>12</v>
       </c>
       <c r="Q31" s="13" t="s">
@@ -4125,113 +4155,113 @@
       <c r="V31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="W31" s="26" t="s">
+      <c r="W31" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X31" s="26" t="s">
+      <c r="X31" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Y31" s="26" t="s">
+      <c r="Y31" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z31" s="26" t="s">
+      <c r="Z31" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA31" s="29" t="s">
+      <c r="AA31" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
     </row>
     <row r="33" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="50">
         <v>3</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="16" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="14" t="s">
         <v>119</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="32" t="s">
+      <c r="I33" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="K33" s="33" t="s">
+      <c r="K33" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="L33" s="32" t="s">
+      <c r="L33" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="M33" s="41" t="s">
+      <c r="M33" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="N33" s="33" t="s">
+      <c r="N33" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="O33" s="33" t="s">
+      <c r="O33" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="P33" s="33" t="s">
+      <c r="P33" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="Q33" s="33" t="s">
+      <c r="Q33" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R33" s="33" t="s">
+      <c r="R33" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S33" s="33" t="s">
+      <c r="S33" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="T33" s="33" t="s">
+      <c r="T33" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="U33" s="26" t="s">
+      <c r="U33" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="V33" s="26" t="s">
+      <c r="V33" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="W33" s="33" t="s">
+      <c r="W33" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="X33" s="33" t="s">
+      <c r="X33" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="Y33" s="32" t="s">
+      <c r="Y33" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="Z33" s="32" t="s">
+      <c r="Z33" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AA33" s="33" t="s">
+      <c r="AA33" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="22"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="7" t="s">
         <v>7</v>
       </c>
@@ -4253,10 +4283,10 @@
       <c r="L34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M34" s="42" t="s">
+      <c r="M34" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="N34" s="10" t="s">
+      <c r="N34" s="39" t="s">
         <v>51</v>
       </c>
       <c r="O34" s="10" t="s">
@@ -4277,106 +4307,106 @@
       <c r="T34" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="U34" s="26" t="s">
+      <c r="U34" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="V34" s="26" t="s">
+      <c r="V34" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="W34" s="26" t="s">
+      <c r="W34" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X34" s="26" t="s">
+      <c r="X34" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Y34" s="26" t="s">
+      <c r="Y34" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z34" s="26" t="s">
+      <c r="Z34" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA34" s="29" t="s">
+      <c r="AA34" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="50"/>
+      <c r="B35" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17" t="s">
+      <c r="E35" s="15"/>
+      <c r="F35" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R35" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S35" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T35" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U35" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V35" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W35" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X35" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y35" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z35" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA35" s="17" t="s">
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA35" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="50"/>
+      <c r="B36" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="20" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="17" t="s">
+      <c r="F36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I36" s="13" t="s">
@@ -4391,10 +4421,10 @@
       <c r="L36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M36" s="42" t="s">
+      <c r="M36" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="N36" s="14" t="s">
+      <c r="N36" s="41" t="s">
         <v>12</v>
       </c>
       <c r="O36" s="10" t="s">
@@ -4403,57 +4433,57 @@
       <c r="P36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q36" s="17" t="s">
+      <c r="Q36" s="15" t="s">
         <v>12</v>
       </c>
       <c r="R36" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="S36" s="16" t="s">
+      <c r="S36" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="T36" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U36" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V36" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W36" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X36" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y36" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z36" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA36" s="17" t="s">
+      <c r="T36" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U36" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V36" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W36" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X36" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y36" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z36" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA36" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="50"/>
+      <c r="B37" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="17" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="17" t="s">
+      <c r="F37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I37" s="13" t="s">
@@ -4468,10 +4498,10 @@
       <c r="L37" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M37" s="43" t="s">
+      <c r="M37" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="N37" s="42" t="s">
         <v>12</v>
       </c>
       <c r="O37" s="10" t="s">
@@ -4480,57 +4510,57 @@
       <c r="P37" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q37" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R37" s="17">
+      <c r="Q37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R37" s="15">
         <v>1</v>
       </c>
-      <c r="S37" s="16" t="s">
+      <c r="S37" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="T37" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U37" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V37" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W37" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X37" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y37" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z37" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA37" s="17" t="s">
+      <c r="T37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA37" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="50"/>
+      <c r="B38" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="17" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="17" t="s">
+      <c r="F38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I38" s="13" t="s">
@@ -4545,10 +4575,10 @@
       <c r="L38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M38" s="43" t="s">
+      <c r="M38" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N38" s="15" t="s">
+      <c r="N38" s="42" t="s">
         <v>12</v>
       </c>
       <c r="O38" s="10" t="s">
@@ -4557,57 +4587,57 @@
       <c r="P38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q38" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R38" s="17">
+      <c r="Q38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R38" s="15">
         <v>0</v>
       </c>
-      <c r="S38" s="17" t="s">
+      <c r="S38" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="T38" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U38" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V38" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W38" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X38" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y38" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z38" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA38" s="17" t="s">
+      <c r="T38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA38" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="50"/>
+      <c r="B39" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="17" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="17" t="s">
+      <c r="F39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I39" s="13" t="s">
@@ -4622,10 +4652,10 @@
       <c r="L39" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M39" s="43" t="s">
+      <c r="M39" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N39" s="15" t="s">
+      <c r="N39" s="42" t="s">
         <v>12</v>
       </c>
       <c r="O39" s="10" t="s">
@@ -4634,59 +4664,59 @@
       <c r="P39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q39" s="17" t="s">
+      <c r="Q39" s="15" t="s">
         <v>12</v>
       </c>
       <c r="R39" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="S39" s="16" t="s">
+      <c r="S39" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="T39" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U39" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V39" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W39" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X39" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y39" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z39" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA39" s="17" t="s">
+      <c r="T39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA39" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="50"/>
+      <c r="B40" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="17" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I40" s="13" t="s">
@@ -4701,10 +4731,10 @@
       <c r="L40" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M40" s="42" t="s">
+      <c r="M40" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="N40" s="14" t="s">
+      <c r="N40" s="41" t="s">
         <v>12</v>
       </c>
       <c r="O40" s="10" t="s">
@@ -4713,59 +4743,59 @@
       <c r="P40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q40" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R40" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S40" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T40" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U40" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V40" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W40" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X40" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y40" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z40" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA40" s="17" t="s">
+      <c r="Q40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA40" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="17" t="s">
+      <c r="A41" s="50"/>
+      <c r="B41" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="17" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I41" s="13" t="s">
@@ -4780,69 +4810,69 @@
       <c r="L41" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M41" s="42" t="s">
+      <c r="M41" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="N41" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="O41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA41" s="17" t="s">
+      <c r="N41" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA41" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="17" t="s">
+      <c r="A42" s="50"/>
+      <c r="B42" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="17" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I42" s="13" t="s">
@@ -4857,10 +4887,10 @@
       <c r="L42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M42" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="N42" s="13" t="s">
+      <c r="M42" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O42" s="10" t="s">
@@ -4869,52 +4899,52 @@
       <c r="P42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q42" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R42" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S42" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T42" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U42" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V42" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W42" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X42" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y42" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z42" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA42" s="17" t="s">
+      <c r="Q42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA42" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="17"/>
+      <c r="E43" s="15"/>
       <c r="F43" s="13" t="s">
         <v>12</v>
       </c>
@@ -4936,78 +4966,78 @@
       <c r="L43" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="N43" s="13"/>
-      <c r="O43" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P43" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q43" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R43" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S43" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T43" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U43" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V43" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W43" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X43" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y43" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z43" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA43" s="17" t="s">
+      <c r="M43" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" s="40"/>
+      <c r="O43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA43" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="17" t="s">
+      <c r="A44" s="50"/>
+      <c r="B44" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
       <c r="K44" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P44" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q44" s="17" t="s">
+      <c r="L44" s="15"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q44" s="15" t="s">
         <v>12</v>
       </c>
       <c r="R44" s="10" t="s">
@@ -5019,119 +5049,119 @@
       <c r="T44" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="U44" s="26" t="s">
+      <c r="U44" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="V44" s="26" t="s">
+      <c r="V44" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="W44" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X44" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y44" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z44" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA44" s="17" t="s">
+      <c r="W44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA44" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
     </row>
     <row r="46" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
+      <c r="A46" s="18">
         <v>4</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="16" t="s">
+      <c r="B46" s="15"/>
+      <c r="C46" s="14" t="s">
         <v>120</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="F46" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="32" t="s">
+      <c r="G46" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="32" t="s">
+      <c r="H46" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="J46" s="32" t="s">
+      <c r="J46" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="K46" s="33" t="s">
+      <c r="K46" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="L46" s="32" t="s">
+      <c r="L46" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="M46" s="41" t="s">
+      <c r="M46" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="N46" s="41" t="s">
+      <c r="N46" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="O46" s="33" t="s">
+      <c r="O46" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="P46" s="33" t="s">
+      <c r="P46" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="Q46" s="33" t="s">
+      <c r="Q46" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R46" s="33" t="s">
+      <c r="R46" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S46" s="33" t="s">
+      <c r="S46" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="T46" s="33" t="s">
+      <c r="T46" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="U46" s="26" t="s">
+      <c r="U46" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="V46" s="26" t="s">
+      <c r="V46" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="W46" s="33" t="s">
+      <c r="W46" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="X46" s="33" t="s">
+      <c r="X46" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="Y46" s="32" t="s">
+      <c r="Y46" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="Z46" s="32" t="s">
+      <c r="Z46" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AA46" s="33" t="s">
+      <c r="AA46" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="22"/>
+      <c r="E47" s="19"/>
       <c r="F47" s="7" t="s">
         <v>7</v>
       </c>
@@ -5153,10 +5183,10 @@
       <c r="L47" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M47" s="42" t="s">
+      <c r="M47" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="N47" s="42" t="s">
+      <c r="N47" s="39" t="s">
         <v>51</v>
       </c>
       <c r="O47" s="10" t="s">
@@ -5177,90 +5207,90 @@
       <c r="T47" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="U47" s="26" t="s">
+      <c r="U47" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="V47" s="26" t="s">
+      <c r="V47" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="W47" s="26" t="s">
+      <c r="W47" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X47" s="26" t="s">
+      <c r="X47" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Y47" s="26" t="s">
+      <c r="Y47" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z47" s="26" t="s">
+      <c r="Z47" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA47" s="29" t="s">
+      <c r="AA47" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="17" t="s">
+      <c r="A48" s="18"/>
+      <c r="B48" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17" t="s">
+      <c r="E48" s="15"/>
+      <c r="F48" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-      <c r="AA48" s="17"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="17" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="20" t="s">
+      <c r="C49" s="15"/>
+      <c r="D49" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" s="17" t="s">
+      <c r="F49" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K49" s="7" t="s">
@@ -5269,10 +5299,10 @@
       <c r="L49" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="42" t="s">
+      <c r="M49" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="N49" s="42" t="s">
+      <c r="N49" s="39" t="s">
         <v>51</v>
       </c>
       <c r="O49" s="10" t="s">
@@ -5281,63 +5311,63 @@
       <c r="P49" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q49" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R49" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S49" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T49" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U49" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V49" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W49" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X49" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y49" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z49" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA49" s="17" t="s">
+      <c r="Q49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA49" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="17" t="s">
+      <c r="A50" s="18"/>
+      <c r="B50" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="17" t="s">
+      <c r="C50" s="15"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" s="17" t="s">
+      <c r="F50" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K50" s="13">
@@ -5346,10 +5376,10 @@
       <c r="L50" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M50" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="N50" s="43" t="s">
+      <c r="M50" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N50" s="40" t="s">
         <v>54</v>
       </c>
       <c r="O50" s="10" t="s">
@@ -5358,65 +5388,65 @@
       <c r="P50" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q50" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R50" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S50" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T50" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U50" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V50" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W50" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X50" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y50" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z50" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA50" s="17" t="s">
+      <c r="Q50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA50" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="17" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" s="17" t="s">
+      <c r="E51" s="15"/>
+      <c r="F51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K51" s="13" t="s">
@@ -5425,10 +5455,10 @@
       <c r="L51" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M51" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="42" t="s">
+      <c r="M51" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="39" t="s">
         <v>51</v>
       </c>
       <c r="O51" s="10" t="s">
@@ -5437,65 +5467,65 @@
       <c r="P51" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q51" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R51" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S51" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T51" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U51" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V51" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W51" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X51" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y51" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z51" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA51" s="17" t="s">
+      <c r="Q51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA51" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="17" t="s">
+      <c r="A52" s="18"/>
+      <c r="B52" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="17" t="s">
+      <c r="E52" s="15"/>
+      <c r="F52" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K52" s="13" t="s">
@@ -5504,220 +5534,220 @@
       <c r="L52" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M52" s="42" t="s">
+      <c r="M52" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="N52" s="42" t="s">
+      <c r="N52" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="O52" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P52" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q52" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R52" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S52" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T52" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U52" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V52" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W52" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X52" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y52" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z52" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA52" s="17" t="s">
+      <c r="O52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA52" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="17" t="s">
+      <c r="A53" s="18"/>
+      <c r="B53" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="17"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="N53" s="42" t="s">
+      <c r="E53" s="15"/>
+      <c r="F53" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="O53" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P53" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q53" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R53" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S53" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T53" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U53" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V53" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W53" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X53" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y53" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z53" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA53" s="17" t="s">
+      <c r="O53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA53" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
     </row>
     <row r="55" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A55" s="20">
+      <c r="A55" s="18">
         <v>5</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="16" t="s">
+      <c r="B55" s="15"/>
+      <c r="C55" s="14" t="s">
         <v>121</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="32" t="s">
+      <c r="F55" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G55" s="32" t="s">
+      <c r="G55" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="32" t="s">
+      <c r="H55" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I55" s="32" t="s">
+      <c r="I55" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="J55" s="32" t="s">
+      <c r="J55" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="K55" s="33" t="s">
+      <c r="K55" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="L55" s="32" t="s">
+      <c r="L55" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="M55" s="33" t="s">
+      <c r="M55" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="N55" s="33" t="s">
+      <c r="N55" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="O55" s="33" t="s">
+      <c r="O55" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="P55" s="33" t="s">
+      <c r="P55" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="Q55" s="33" t="s">
+      <c r="Q55" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R55" s="33" t="s">
+      <c r="R55" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="33" t="s">
+      <c r="S55" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="T55" s="33" t="s">
+      <c r="T55" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="U55" s="26" t="s">
+      <c r="U55" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="V55" s="26" t="s">
+      <c r="V55" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="W55" s="33" t="s">
+      <c r="W55" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="X55" s="33" t="s">
+      <c r="X55" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="Y55" s="32" t="s">
+      <c r="Y55" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="Z55" s="32" t="s">
+      <c r="Z55" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AA55" s="33" t="s">
+      <c r="AA55" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="22"/>
+      <c r="E56" s="19"/>
       <c r="F56" s="7" t="s">
         <v>7</v>
       </c>
@@ -5739,10 +5769,10 @@
       <c r="L56" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M56" s="10" t="s">
+      <c r="M56" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="N56" s="39" t="s">
         <v>51</v>
       </c>
       <c r="O56" s="10" t="s">
@@ -5763,35 +5793,35 @@
       <c r="T56" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="U56" s="26" t="s">
+      <c r="U56" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="V56" s="26" t="s">
+      <c r="V56" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="W56" s="26" t="s">
+      <c r="W56" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X56" s="26" t="s">
+      <c r="X56" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Y56" s="26" t="s">
+      <c r="Y56" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z56" s="26" t="s">
+      <c r="Z56" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA56" s="29" t="s">
+      <c r="AA56" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="17" t="s">
+      <c r="A57" s="18"/>
+      <c r="B57" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="20" t="s">
+      <c r="C57" s="15"/>
+      <c r="D57" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E57" s="13" t="s">
@@ -5818,10 +5848,10 @@
       <c r="L57" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M57" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N57" s="13" t="s">
+      <c r="M57" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O57" s="10" t="s">
@@ -5865,12 +5895,12 @@
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="17" t="s">
+      <c r="A58" s="18"/>
+      <c r="B58" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="20"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="13" t="s">
         <v>27</v>
       </c>
@@ -5895,10 +5925,10 @@
       <c r="L58" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M58" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N58" s="13" t="s">
+      <c r="M58" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N58" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O58" s="13" t="s">
@@ -5942,12 +5972,12 @@
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="17" t="s">
+      <c r="A59" s="18"/>
+      <c r="B59" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="20"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="13" t="s">
         <v>57</v>
       </c>
@@ -5972,10 +6002,10 @@
       <c r="L59" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M59" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N59" s="13" t="s">
+      <c r="M59" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N59" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O59" s="13" t="s">
@@ -6019,17 +6049,17 @@
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="17" t="s">
+      <c r="A60" s="18"/>
+      <c r="B60" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="17"/>
+      <c r="E60" s="15"/>
       <c r="F60" s="13" t="s">
         <v>12</v>
       </c>
@@ -6051,19 +6081,19 @@
       <c r="L60" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M60" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N60" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O60" s="17" t="s">
+      <c r="M60" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="O60" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q60" s="17" t="s">
+      <c r="P60" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q60" s="15" t="s">
         <v>55</v>
       </c>
       <c r="R60" s="13" t="s">
@@ -6098,17 +6128,17 @@
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="17" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="17"/>
+      <c r="E61" s="15"/>
       <c r="F61" s="13" t="s">
         <v>12</v>
       </c>
@@ -6130,19 +6160,19 @@
       <c r="L61" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M61" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N61" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O61" s="17" t="s">
+      <c r="M61" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="O61" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="P61" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q61" s="17" t="s">
+      <c r="P61" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q61" s="15" t="s">
         <v>55</v>
       </c>
       <c r="R61" s="13" t="s">
@@ -6177,17 +6207,17 @@
       </c>
     </row>
     <row r="62" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="17" t="s">
+      <c r="A62" s="18"/>
+      <c r="B62" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="17"/>
+      <c r="E62" s="15"/>
       <c r="F62" s="13" t="s">
         <v>12</v>
       </c>
@@ -6209,19 +6239,19 @@
       <c r="L62" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M62" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N62" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O62" s="17" t="s">
+      <c r="M62" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="O62" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="P62" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q62" s="17" t="s">
+      <c r="P62" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q62" s="15" t="s">
         <v>55</v>
       </c>
       <c r="R62" s="13" t="s">
@@ -6256,17 +6286,17 @@
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="17" t="s">
+      <c r="A63" s="18"/>
+      <c r="B63" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E63" s="17"/>
+      <c r="E63" s="15"/>
       <c r="F63" s="13" t="s">
         <v>12</v>
       </c>
@@ -6288,19 +6318,19 @@
       <c r="L63" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M63" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N63" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O63" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P63" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q63" s="17" t="s">
+      <c r="M63" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="O63" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P63" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q63" s="15" t="s">
         <v>55</v>
       </c>
       <c r="R63" s="13" t="s">
@@ -6335,96 +6365,96 @@
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V64" s="28"/>
-      <c r="W64" s="28"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="25"/>
     </row>
     <row r="65" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A65" s="20">
+      <c r="A65" s="50">
         <v>6</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="16" t="s">
+      <c r="B65" s="15"/>
+      <c r="C65" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="22" t="s">
+      <c r="E65" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="32" t="s">
+      <c r="F65" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G65" s="32" t="s">
+      <c r="G65" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H65" s="32" t="s">
+      <c r="H65" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I65" s="32" t="s">
+      <c r="I65" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="J65" s="32" t="s">
+      <c r="J65" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="K65" s="33" t="s">
+      <c r="K65" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="L65" s="32" t="s">
+      <c r="L65" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="M65" s="33" t="s">
+      <c r="M65" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="N65" s="33" t="s">
+      <c r="N65" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="O65" s="33" t="s">
+      <c r="O65" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="P65" s="33" t="s">
+      <c r="P65" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="Q65" s="33" t="s">
+      <c r="Q65" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R65" s="33" t="s">
+      <c r="R65" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S65" s="33" t="s">
+      <c r="S65" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="T65" s="33" t="s">
+      <c r="T65" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="U65" s="26" t="s">
+      <c r="U65" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="V65" s="26" t="s">
+      <c r="V65" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="W65" s="33" t="s">
+      <c r="W65" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="X65" s="33" t="s">
+      <c r="X65" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="Y65" s="32" t="s">
+      <c r="Y65" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="Z65" s="32" t="s">
+      <c r="Z65" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AA65" s="33" t="s">
+      <c r="AA65" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
+      <c r="A66" s="50"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="22"/>
+      <c r="E66" s="19"/>
       <c r="F66" s="7" t="s">
         <v>7</v>
       </c>
@@ -6446,10 +6476,10 @@
       <c r="L66" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M66" s="10" t="s">
+      <c r="M66" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="N66" s="10" t="s">
+      <c r="N66" s="39" t="s">
         <v>51</v>
       </c>
       <c r="O66" s="10" t="s">
@@ -6470,35 +6500,35 @@
       <c r="T66" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="U66" s="26" t="s">
+      <c r="U66" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="V66" s="26" t="s">
+      <c r="V66" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="W66" s="26" t="s">
+      <c r="W66" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X66" s="26" t="s">
+      <c r="X66" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Y66" s="26" t="s">
+      <c r="Y66" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z66" s="26" t="s">
+      <c r="Z66" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA66" s="29" t="s">
+      <c r="AA66" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="17" t="s">
+      <c r="A67" s="50"/>
+      <c r="B67" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17" t="s">
+      <c r="C67" s="15"/>
+      <c r="D67" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E67" s="13" t="s">
@@ -6525,10 +6555,10 @@
       <c r="L67" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M67" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N67" s="13" t="s">
+      <c r="M67" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O67" s="13" t="s">
@@ -6572,12 +6602,12 @@
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="17" t="s">
+      <c r="A68" s="50"/>
+      <c r="B68" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
       <c r="E68" s="13" t="s">
         <v>27</v>
       </c>
@@ -6602,10 +6632,10 @@
       <c r="L68" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M68" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N68" s="13" t="s">
+      <c r="M68" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O68" s="13" t="s">
@@ -6653,113 +6683,113 @@
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="28"/>
-      <c r="R69" s="28"/>
-      <c r="S69" s="28"/>
-      <c r="T69" s="28"/>
-      <c r="U69" s="28"/>
-      <c r="V69" s="28"/>
-      <c r="W69" s="28"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="25"/>
     </row>
     <row r="70" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A70" s="20">
+      <c r="A70" s="50">
         <v>7</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="16" t="s">
+      <c r="B70" s="15"/>
+      <c r="C70" s="14" t="s">
         <v>123</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="32" t="s">
+      <c r="F70" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G70" s="32" t="s">
+      <c r="G70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H70" s="32" t="s">
+      <c r="H70" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I70" s="32" t="s">
+      <c r="I70" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="J70" s="32" t="s">
+      <c r="J70" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="K70" s="33" t="s">
+      <c r="K70" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="L70" s="32" t="s">
+      <c r="L70" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="M70" s="33" t="s">
+      <c r="M70" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="N70" s="33" t="s">
+      <c r="N70" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="O70" s="33" t="s">
+      <c r="O70" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="P70" s="33" t="s">
+      <c r="P70" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="Q70" s="33" t="s">
+      <c r="Q70" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R70" s="33" t="s">
+      <c r="R70" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S70" s="33" t="s">
+      <c r="S70" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="T70" s="33" t="s">
+      <c r="T70" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="U70" s="26" t="s">
+      <c r="U70" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="V70" s="26" t="s">
+      <c r="V70" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="W70" s="33" t="s">
+      <c r="W70" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="X70" s="33" t="s">
+      <c r="X70" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="Y70" s="32" t="s">
+      <c r="Y70" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="Z70" s="32" t="s">
+      <c r="Z70" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AA70" s="33" t="s">
+      <c r="AA70" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="A71" s="50"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="22"/>
+      <c r="E71" s="19"/>
       <c r="F71" s="7" t="s">
         <v>7</v>
       </c>
@@ -6781,10 +6811,10 @@
       <c r="L71" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M71" s="10" t="s">
+      <c r="M71" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="N71" s="10" t="s">
+      <c r="N71" s="39" t="s">
         <v>51</v>
       </c>
       <c r="O71" s="10" t="s">
@@ -6805,35 +6835,35 @@
       <c r="T71" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="U71" s="26" t="s">
+      <c r="U71" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="V71" s="26" t="s">
+      <c r="V71" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="W71" s="26" t="s">
+      <c r="W71" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X71" s="26" t="s">
+      <c r="X71" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Y71" s="26" t="s">
+      <c r="Y71" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z71" s="26" t="s">
+      <c r="Z71" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA71" s="29" t="s">
+      <c r="AA71" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
-      <c r="B72" s="17" t="s">
+      <c r="A72" s="50"/>
+      <c r="B72" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17" t="s">
+      <c r="C72" s="15"/>
+      <c r="D72" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E72" s="13" t="s">
@@ -6860,10 +6890,10 @@
       <c r="L72" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N72" s="13" t="s">
+      <c r="M72" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O72" s="13" t="s">
@@ -6890,16 +6920,16 @@
       <c r="V72" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="W72" s="26" t="s">
+      <c r="W72" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X72" s="26" t="s">
+      <c r="X72" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Y72" s="26" t="s">
+      <c r="Y72" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z72" s="26" t="s">
+      <c r="Z72" s="23" t="s">
         <v>111</v>
       </c>
       <c r="AA72" s="13" t="s">
@@ -6907,12 +6937,12 @@
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
-      <c r="B73" s="17" t="s">
+      <c r="A73" s="50"/>
+      <c r="B73" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
       <c r="E73" s="13" t="s">
         <v>27</v>
       </c>
@@ -6937,10 +6967,10 @@
       <c r="L73" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N73" s="13" t="s">
+      <c r="M73" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N73" s="40" t="s">
         <v>12</v>
       </c>
       <c r="O73" s="13" t="s">
@@ -6984,22 +7014,22 @@
       </c>
     </row>
     <row r="74" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="34" t="s">
+      <c r="A74" s="31" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:27" ht="55.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="35" t="s">
+      <c r="A75" s="32" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:27" ht="55.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="35" t="s">
+      <c r="A77" s="32" t="s">
         <v>84</v>
       </c>
     </row>
@@ -7052,62 +7082,62 @@
   </cols>
   <sheetData>
     <row r="17" spans="1:17" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="19">
         <v>2</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="L17" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="33" t="s">
+      <c r="M17" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="N17" s="33" t="s">
+      <c r="N17" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="O17" s="32" t="s">
+      <c r="O17" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="P17" s="32" t="s">
+      <c r="P17" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="Q17" s="33" t="s">
+      <c r="Q17" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="22"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
@@ -7129,68 +7159,68 @@
       <c r="L18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="26" t="s">
+      <c r="O18" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="P18" s="26" t="s">
+      <c r="P18" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="Q18" s="29" t="s">
+      <c r="Q18" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="20" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="17" t="s">
+      <c r="F20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="7" t="s">
@@ -7217,27 +7247,27 @@
       <c r="P20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q20" s="29" t="s">
+      <c r="Q20" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="17" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="17" t="s">
+      <c r="F21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="13" t="s">
@@ -7264,27 +7294,27 @@
       <c r="P21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q21" s="27">
+      <c r="Q21" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="17" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="17" t="s">
+      <c r="F22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="13" t="s">
@@ -7311,27 +7341,27 @@
       <c r="P22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q22" s="27">
+      <c r="Q22" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="17" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="17" t="s">
+      <c r="F23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="13" t="s">
@@ -7358,29 +7388,29 @@
       <c r="P23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="17" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="7" t="s">
@@ -7412,24 +7442,24 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="17" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="7" t="s">
@@ -7461,22 +7491,22 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="17" t="s">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="7" t="s">
@@ -7508,17 +7538,17 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="13" t="s">
         <v>12</v>
       </c>
@@ -7534,10 +7564,10 @@
       <c r="J27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" s="17" t="s">
+      <c r="K27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="15" t="s">
         <v>12</v>
       </c>
       <c r="M27" s="13" t="s">
@@ -7557,41 +7587,41 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="26" t="s">
+      <c r="J28" s="15"/>
+      <c r="K28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="N28" s="26" t="s">
+      <c r="N28" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="O28" s="26" t="s">
+      <c r="O28" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="P28" s="26" t="s">
+      <c r="P28" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="Q28" s="29" t="s">
+      <c r="Q28" s="26" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7619,57 +7649,57 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="34" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="37">
+      <c r="B4" s="34">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="37">
+      <c r="B5" s="34">
         <v>2</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <v>3</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="37">
+      <c r="B7" s="34">
         <v>4</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/פרויקט גמר CPP.xlsx
+++ b/פרויקט גמר CPP.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidM\source\repos\finalProjectCpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854CD132-CAF2-45F8-B40F-CA3D38F5C861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A556E9D0-9BBD-4386-8676-CD42CC3A8BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="3345" windowWidth="18300" windowHeight="11190" activeTab="1" xr2:uid="{D5F3B20F-B123-4529-BBC6-744239AAD04B}"/>
+    <workbookView xWindow="1125" yWindow="3345" windowWidth="18300" windowHeight="11190" xr2:uid="{D5F3B20F-B123-4529-BBC6-744239AAD04B}"/>
   </bookViews>
   <sheets>
     <sheet name="כללי" sheetId="1" r:id="rId1"/>
     <sheet name="פירוט כלל המחלקות" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
-    <sheet name="משימות" sheetId="4" r:id="rId4"/>
+    <sheet name="משימות" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="133">
   <si>
     <t>פרויקט</t>
   </si>
@@ -198,9 +197,6 @@
   </si>
   <si>
     <t>שדה 12</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>שדה 13</t>
@@ -297,40 +293,6 @@
 static int taskCt</t>
   </si>
   <si>
-    <t>get_time </t>
-  </si>
-  <si>
-    <r>
-      <t>Get date and time </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF008000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>(function )</t>
-    </r>
-  </si>
-  <si>
-    <t>put_time </t>
-  </si>
-  <si>
-    <r>
-      <t>Put date and time </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF008000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>(function )</t>
-    </r>
-  </si>
-  <si>
     <t>שדה 14</t>
   </si>
   <si>
@@ -510,18 +472,19 @@
     <t>ביצוע</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>כולל בדיקה
 bool testIncluded</t>
+  </si>
+  <si>
+    <t>שם המשתתף
+string nameP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,12 +520,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF008000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -571,30 +528,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -662,9 +601,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="2"/>
@@ -714,22 +653,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -756,7 +683,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -772,50 +699,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1244,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E862EF-A94E-44EF-9A0C-D518F53F1219}">
   <dimension ref="F1:AJ20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:AJ13"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH26" sqref="AH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1202,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="6"/>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="33" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="6" t="s">
@@ -1336,37 +1239,37 @@
         <v>53</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD5" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE5" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF5" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG5" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD5" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE5" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF5" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG5" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH5" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI5" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ5" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="AH5" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI5" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ5" s="26" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="6:36" ht="105" x14ac:dyDescent="0.25">
@@ -1376,72 +1279,72 @@
       <c r="M6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20" t="s">
+      <c r="N6" s="33"/>
+      <c r="O6" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="Q6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="R6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="R6" s="22" t="s">
+      <c r="S6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="T6" s="8" t="s">
+      <c r="U6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="V6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="W6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="W6" s="8" t="s">
+      <c r="X6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="X6" s="8" t="s">
+      <c r="Y6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="Y6" s="8" t="s">
+      <c r="Z6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="Z6" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="AA6" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD6" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE6" s="23" t="s">
-        <v>96</v>
+        <v>83</v>
+      </c>
+      <c r="AD6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE6" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="AF6" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AG6" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH6" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI6" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="AH6" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI6" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="AJ6" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="6:36" x14ac:dyDescent="0.25">
@@ -1463,13 +1366,13 @@
       <c r="N7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="23" t="s">
         <v>13</v>
       </c>
       <c r="R7" s="4" t="s">
@@ -1537,19 +1440,19 @@
       <c r="N8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="27" t="s">
+      <c r="O8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="27" t="s">
+      <c r="S8" s="23" t="s">
         <v>13</v>
       </c>
       <c r="T8" s="5" t="s">
@@ -1564,10 +1467,10 @@
       <c r="W8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y8" s="28" t="s">
+      <c r="X8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="Z8" s="5" t="s">
@@ -1600,7 +1503,7 @@
       <c r="AI8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AJ8" s="28" t="s">
+      <c r="AJ8" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1609,24 +1512,24 @@
         <v>4</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="24" t="s">
         <v>13</v>
       </c>
       <c r="U9" s="5" t="s">
@@ -1635,13 +1538,13 @@
       <c r="V9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="W9" s="28" t="s">
+      <c r="W9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y9" s="28" t="s">
+      <c r="X9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="24" t="s">
         <v>14</v>
       </c>
       <c r="Z9" s="5" t="s">
@@ -1674,7 +1577,7 @@
       <c r="AI9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AJ9" s="28" t="s">
+      <c r="AJ9" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1685,13 +1588,13 @@
       <c r="N10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="28" t="s">
+      <c r="O10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="24" t="s">
         <v>14</v>
       </c>
       <c r="R10" s="5" t="s">
@@ -1703,28 +1606,28 @@
       <c r="T10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="28" t="s">
+      <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="28" t="s">
+      <c r="V10" s="24" t="s">
         <v>13</v>
       </c>
       <c r="W10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y10" s="28" t="s">
+      <c r="X10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="24" t="s">
         <v>14</v>
       </c>
       <c r="Z10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="28" t="s">
+      <c r="AA10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AB10" s="28" t="s">
+      <c r="AB10" s="24" t="s">
         <v>13</v>
       </c>
       <c r="AC10" s="5" t="s">
@@ -1786,13 +1689,13 @@
       <c r="W11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X11" s="28" t="s">
+      <c r="X11" s="24" t="s">
         <v>13</v>
       </c>
       <c r="Y11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="28" t="s">
+      <c r="Z11" s="24" t="s">
         <v>13</v>
       </c>
       <c r="AA11" s="5" t="s">
@@ -1831,7 +1734,7 @@
         <v>6</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>12</v>
@@ -1875,13 +1778,13 @@
       <c r="AB12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AC12" s="28" t="s">
+      <c r="AC12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AD12" s="28" t="s">
+      <c r="AD12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE12" s="27" t="s">
+      <c r="AE12" s="23" t="s">
         <v>13</v>
       </c>
       <c r="AF12" s="5" t="s">
@@ -1905,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>12</v>
@@ -1958,16 +1861,16 @@
       <c r="AE13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AF13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG13" s="28" t="s">
+      <c r="AF13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AH13" s="28" t="s">
+      <c r="AG13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AI13" s="28" t="s">
+      <c r="AH13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI13" s="24" t="s">
         <v>13</v>
       </c>
       <c r="AJ13" s="5" t="s">
@@ -1976,7 +1879,7 @@
     </row>
     <row r="20" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z20" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1992,11 +1895,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E481D19-D7AD-4BEB-976A-AE15DC892047}">
-  <dimension ref="A1:AA77"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D49" sqref="D49:D50"/>
+    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,97 +1914,89 @@
     <col min="9" max="9" width="12.5703125" style="12" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="12"/>
     <col min="12" max="12" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="47" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="12" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="12"/>
+    <col min="13" max="13" width="16.85546875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+    <row r="1" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="8" t="s">
         <v>74</v>
       </c>
+      <c r="N1" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="O1" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+        <v>83</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
@@ -2123,69 +2018,63 @@
       <c r="L2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="44" t="s">
-        <v>51</v>
+      <c r="M2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="X2" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y2" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z2" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA2" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -2200,10 +2089,10 @@
       <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="45" t="s">
+      <c r="M3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -2239,36 +2128,30 @@
       <c r="Y3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="4">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="27" t="s">
+      <c r="F4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -2277,17 +2160,17 @@
       <c r="L4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>14</v>
+      <c r="M4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>12</v>
@@ -2313,110 +2196,98 @@
       <c r="X4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA4" s="28" t="s">
+      <c r="Y4" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="4">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="24" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="46" t="s">
+      <c r="M5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA5" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="4">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="28" t="s">
+      <c r="F6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -2428,29 +2299,29 @@
       <c r="K6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="28" t="s">
+      <c r="Q6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="28" t="s">
-        <v>13</v>
+      <c r="R6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>12</v>
@@ -2470,17 +2341,11 @@
       <c r="Y6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Z6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="5">
         <v>5</v>
       </c>
@@ -2508,20 +2373,20 @@
       <c r="L7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="28" t="s">
+      <c r="M7" s="24" t="s">
         <v>13</v>
       </c>
+      <c r="N7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="P7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="28" t="s">
-        <v>13</v>
+      <c r="Q7" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>12</v>
@@ -2547,22 +2412,16 @@
       <c r="Y7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Z7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="5">
         <v>6</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
@@ -2585,10 +2444,10 @@
       <c r="L8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="45" t="s">
+      <c r="M8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O8" s="5" t="s">
@@ -2600,21 +2459,21 @@
       <c r="Q8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="28" t="s">
+      <c r="R8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="28" t="s">
+      <c r="S8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="27" t="s">
+      <c r="T8" s="23" t="s">
         <v>13</v>
       </c>
+      <c r="U8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="W8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2624,22 +2483,16 @@
       <c r="Y8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Z8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="5">
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>12</v>
@@ -2662,10 +2515,10 @@
       <c r="L9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="45" t="s">
+      <c r="M9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O9" s="5" t="s">
@@ -2689,117 +2542,105 @@
       <c r="U9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="V9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="X9" s="28" t="s">
+      <c r="V9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Y9" s="28" t="s">
+      <c r="W9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Z9" s="28" t="s">
+      <c r="X9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-    </row>
-    <row r="11" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+      <c r="Y9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
         <v>1</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="35" t="s">
-        <v>117</v>
+      <c r="C11" s="31" t="s">
+        <v>112</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="H11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="30" t="s">
+      <c r="I11" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" s="38" t="s">
+      <c r="M11" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="R11" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="S11" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="T11" s="30" t="s">
+      <c r="N11" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U11" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="V11" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="W11" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="X11" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y11" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z11" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA11" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="R11" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="U11" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="V11" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="W11" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="X11" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y11" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="19"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
@@ -2821,54 +2662,48 @@
       <c r="L12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="39" t="s">
-        <v>51</v>
+      <c r="M12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="U12" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="V12" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="W12" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="X12" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U12" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="W12" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y12" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y12" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z12" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA12" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
       <c r="B13" s="15" t="s">
         <v>39</v>
       </c>
@@ -2888,8 +2723,8 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
@@ -2901,11 +2736,9 @@
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
       <c r="B14" s="15" t="s">
         <v>23</v>
       </c>
@@ -2937,18 +2770,18 @@
       <c r="L14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="10" t="s">
+      <c r="M14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="N14" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="O14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="Q14" s="13" t="s">
         <v>12</v>
       </c>
@@ -2976,19 +2809,13 @@
       <c r="Y14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA14" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
       <c r="B15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15" t="s">
         <v>27</v>
@@ -3014,18 +2841,18 @@
       <c r="L15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="O15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="Q15" s="13" t="s">
         <v>12</v>
       </c>
@@ -3053,15 +2880,9 @@
       <c r="Y15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA15" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
       <c r="B16" s="15" t="s">
         <v>40</v>
       </c>
@@ -3093,18 +2914,18 @@
       <c r="L16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="10" t="s">
+      <c r="M16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="N16" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="O16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="Q16" s="13" t="s">
         <v>12</v>
       </c>
@@ -3132,15 +2953,9 @@
       <c r="Y16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA16" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
       <c r="B17" s="15" t="s">
         <v>41</v>
       </c>
@@ -3172,16 +2987,16 @@
       <c r="L17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="15" t="s">
+      <c r="M17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="13" t="s">
@@ -3211,15 +3026,9 @@
       <c r="Y17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA17" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="13" t="s">
@@ -3249,18 +3058,18 @@
       <c r="L18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="10" t="s">
+      <c r="M18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="N18" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="O18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="Q18" s="13" t="s">
         <v>12</v>
       </c>
@@ -3288,100 +3097,88 @@
       <c r="Y18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA18" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="51">
+    </row>
+    <row r="20" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="37">
         <v>2</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="H20" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="30" t="s">
+      <c r="I20" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="M20" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="N20" s="38" t="s">
+      <c r="M20" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="P20" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="R20" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="S20" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="T20" s="30" t="s">
+      <c r="N20" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="R20" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="S20" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="U20" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="V20" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="U20" s="23" t="s">
+      <c r="W20" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="V20" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="W20" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="X20" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y20" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z20" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA20" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+      <c r="X20" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y20" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="19"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
@@ -3403,54 +3200,48 @@
       <c r="L21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" s="39" t="s">
-        <v>51</v>
+      <c r="M21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="T21" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="U21" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="V21" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="W21" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="X21" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="S21" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="W21" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="X21" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y21" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y21" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z21" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA21" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
       <c r="B22" s="15" t="s">
         <v>39</v>
       </c>
@@ -3470,8 +3261,8 @@
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
@@ -3483,16 +3274,14 @@
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
       <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="36" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -3508,7 +3297,7 @@
         <v>14</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>15</v>
@@ -3519,17 +3308,17 @@
       <c r="L23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>14</v>
+      <c r="M23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="Q23" s="13" t="s">
         <v>12</v>
@@ -3555,23 +3344,17 @@
       <c r="X23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Y23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA23" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="Y23" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
       <c r="B24" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="18"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="15" t="s">
         <v>27</v>
       </c>
@@ -3585,7 +3368,7 @@
         <v>14</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>35</v>
@@ -3596,17 +3379,17 @@
       <c r="L24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M24" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>14</v>
+      <c r="M24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="Q24" s="13" t="s">
         <v>12</v>
@@ -3632,23 +3415,17 @@
       <c r="X24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Y24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA24" s="24">
+      <c r="Y24" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
       <c r="B25" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="15" t="s">
         <v>37</v>
       </c>
@@ -3662,7 +3439,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>15</v>
@@ -3673,17 +3450,17 @@
       <c r="L25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>14</v>
+      <c r="M25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="Q25" s="13" t="s">
         <v>12</v>
@@ -3709,23 +3486,17 @@
       <c r="X25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Y25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA25" s="24">
+      <c r="Y25" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
       <c r="B26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="15" t="s">
         <v>36</v>
       </c>
@@ -3739,7 +3510,7 @@
         <v>14</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>35</v>
@@ -3750,17 +3521,17 @@
       <c r="L26" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>14</v>
+      <c r="M26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="Q26" s="13" t="s">
         <v>12</v>
@@ -3786,18 +3557,12 @@
       <c r="X26" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Y26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA26" s="33">
+      <c r="Y26" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
       <c r="B27" s="15" t="s">
         <v>40</v>
       </c>
@@ -3829,17 +3594,17 @@
       <c r="L27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>14</v>
+      <c r="M27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="Q27" s="13" t="s">
         <v>12</v>
@@ -3866,17 +3631,11 @@
         <v>12</v>
       </c>
       <c r="Y27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA27" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
       <c r="B28" s="15" t="s">
         <v>41</v>
       </c>
@@ -3908,16 +3667,16 @@
       <c r="L28" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" s="10" t="s">
+      <c r="M28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="13" t="s">
         <v>12</v>
       </c>
       <c r="Q28" s="13" t="s">
@@ -3947,19 +3706,13 @@
       <c r="Y28" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA28" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
       <c r="B29" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="13" t="s">
         <v>34</v>
       </c>
@@ -3985,17 +3738,17 @@
       <c r="L29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P29" s="10" t="s">
-        <v>14</v>
+      <c r="M29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="Q29" s="13" t="s">
         <v>12</v>
@@ -4024,15 +3777,9 @@
       <c r="Y29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA29" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
       <c r="B30" s="13" t="s">
         <v>41</v>
       </c>
@@ -4064,16 +3811,16 @@
       <c r="L30" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M30" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N30" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P30" s="15" t="s">
+      <c r="M30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="13" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="13" t="s">
@@ -4103,15 +3850,9 @@
       <c r="Y30" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA30" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
+    </row>
+    <row r="31" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
       <c r="B31" s="15" t="s">
         <v>47</v>
       </c>
@@ -4129,12 +3870,16 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P31" s="15" t="s">
+      <c r="M31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="13" t="s">
         <v>12</v>
       </c>
       <c r="Q31" s="13" t="s">
@@ -4149,119 +3894,107 @@
       <c r="T31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="U31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="V31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="W31" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="X31" s="23" t="s">
+      <c r="U31" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="V31" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="W31" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="X31" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y31" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y31" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z31" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA31" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-    </row>
-    <row r="33" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="50">
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+    </row>
+    <row r="33" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
         <v>3</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="H33" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="J33" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K33" s="30" t="s">
+      <c r="I33" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="L33" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="M33" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="N33" s="38" t="s">
+      <c r="M33" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O33" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="P33" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q33" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="R33" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="S33" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="T33" s="30" t="s">
+      <c r="N33" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="O33" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q33" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="R33" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="S33" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="T33" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="U33" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="V33" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="U33" s="23" t="s">
+      <c r="W33" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="V33" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="W33" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="X33" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y33" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z33" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA33" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
+      <c r="X33" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y33" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="19"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="7" t="s">
         <v>7</v>
       </c>
@@ -4283,54 +4016,48 @@
       <c r="L34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M34" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="N34" s="39" t="s">
-        <v>51</v>
+      <c r="M34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="S34" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="T34" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="U34" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="V34" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="W34" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="X34" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="S34" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="T34" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U34" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="V34" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="W34" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="X34" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y34" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y34" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z34" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA34" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
       <c r="B35" s="15" t="s">
         <v>39</v>
       </c>
@@ -4350,10 +4077,14 @@
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="Q35" s="15" t="s">
         <v>12</v>
       </c>
@@ -4381,20 +4112,14 @@
       <c r="Y35" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z35" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA35" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
+    </row>
+    <row r="36" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="34"/>
       <c r="B36" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="36" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="15" t="s">
@@ -4421,26 +4146,26 @@
       <c r="L36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M36" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="N36" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>14</v>
+      <c r="M36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q36" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R36" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="S36" s="14" t="s">
-        <v>128</v>
+        <v>80</v>
+      </c>
+      <c r="Q36" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="T36" s="15" t="s">
         <v>12</v>
@@ -4460,20 +4185,14 @@
       <c r="Y36" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z36" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA36" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
+    </row>
+    <row r="37" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
       <c r="B37" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="15" t="s">
         <v>27</v>
       </c>
@@ -4498,26 +4217,26 @@
       <c r="L37" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M37" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="N37" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="O37" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P37" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q37" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R37" s="15">
+      <c r="M37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="15">
         <v>1</v>
       </c>
-      <c r="S37" s="14" t="s">
-        <v>128</v>
+      <c r="Q37" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="R37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S37" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="T37" s="15" t="s">
         <v>12</v>
@@ -4537,20 +4256,14 @@
       <c r="Y37" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z37" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA37" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
       <c r="B38" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="15"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="15" t="s">
         <v>43</v>
       </c>
@@ -4575,26 +4288,26 @@
       <c r="L38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M38" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="N38" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P38" s="10" t="s">
-        <v>14</v>
+      <c r="M38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P38" s="15">
+        <v>0</v>
       </c>
       <c r="Q38" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R38" s="15">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="R38" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="T38" s="15" t="s">
         <v>12</v>
@@ -4614,20 +4327,14 @@
       <c r="Y38" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z38" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA38" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
+    </row>
+    <row r="39" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="34"/>
       <c r="B39" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="18"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="15" t="s">
         <v>44</v>
       </c>
@@ -4652,26 +4359,26 @@
       <c r="L39" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M39" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="N39" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="O39" s="10" t="s">
-        <v>14</v>
+      <c r="M39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q39" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R39" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="S39" s="14" t="s">
-        <v>128</v>
+        <v>80</v>
+      </c>
+      <c r="Q39" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="T39" s="15" t="s">
         <v>12</v>
@@ -4691,15 +4398,9 @@
       <c r="Y39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z39" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA39" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="34"/>
       <c r="B40" s="15" t="s">
         <v>40</v>
       </c>
@@ -4731,17 +4432,17 @@
       <c r="L40" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M40" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="N40" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="O40" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P40" s="10" t="s">
-        <v>14</v>
+      <c r="M40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="Q40" s="15" t="s">
         <v>12</v>
@@ -4770,15 +4471,9 @@
       <c r="Y40" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z40" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA40" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="34"/>
       <c r="B41" s="15" t="s">
         <v>41</v>
       </c>
@@ -4810,10 +4505,10 @@
       <c r="L41" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M41" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="N41" s="41" t="s">
+      <c r="M41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="15" t="s">
         <v>12</v>
       </c>
       <c r="O41" s="15" t="s">
@@ -4849,19 +4544,13 @@
       <c r="Y41" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z41" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA41" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
       <c r="B42" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="15"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="13" t="s">
         <v>34</v>
       </c>
@@ -4887,17 +4576,17 @@
       <c r="L42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M42" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N42" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P42" s="10" t="s">
-        <v>14</v>
+      <c r="M42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="Q42" s="15" t="s">
         <v>12</v>
@@ -4926,15 +4615,9 @@
       <c r="Y42" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z42" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA42" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="34"/>
       <c r="B43" s="13" t="s">
         <v>41</v>
       </c>
@@ -4966,10 +4649,12 @@
       <c r="L43" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N43" s="40"/>
+      <c r="M43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="O43" s="15" t="s">
         <v>12</v>
       </c>
@@ -5003,15 +4688,9 @@
       <c r="Y43" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z43" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA43" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
+    </row>
+    <row r="44" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="34"/>
       <c r="B44" s="15" t="s">
         <v>47</v>
       </c>
@@ -5029,31 +4708,35 @@
         <v>12</v>
       </c>
       <c r="L44" s="15"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
+      <c r="M44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="O44" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P44" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q44" s="15" t="s">
-        <v>12</v>
+      <c r="P44" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="S44" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="T44" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="U44" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="V44" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="S44" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="T44" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V44" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="W44" s="15" t="s">
         <v>12</v>
@@ -5064,104 +4747,92 @@
       <c r="Y44" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z44" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA44" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
-    </row>
-    <row r="46" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="18">
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+    </row>
+    <row r="46" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="34">
         <v>4</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="H46" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="J46" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K46" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="L46" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="M46" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="N46" s="38" t="s">
+      <c r="I46" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L46" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="M46" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O46" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="P46" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q46" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="R46" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="S46" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="T46" s="30" t="s">
+      <c r="N46" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="O46" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P46" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q46" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="R46" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="S46" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="T46" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="U46" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="V46" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="U46" s="23" t="s">
+      <c r="W46" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="V46" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="W46" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="X46" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y46" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z46" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA46" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
+      <c r="X46" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y46" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="34"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="19"/>
+      <c r="E47" s="33"/>
       <c r="F47" s="7" t="s">
         <v>7</v>
       </c>
@@ -5183,54 +4854,48 @@
       <c r="L47" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M47" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="N47" s="39" t="s">
-        <v>51</v>
+      <c r="M47" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P47" s="10" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="S47" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="T47" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="U47" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="V47" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="W47" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="X47" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="S47" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="T47" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U47" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="V47" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="W47" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="X47" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y47" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y47" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z47" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA47" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="34"/>
       <c r="B48" s="15" t="s">
         <v>39</v>
       </c>
@@ -5250,8 +4915,8 @@
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
       <c r="O48" s="15"/>
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
@@ -5263,16 +4928,14 @@
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
       <c r="Y48" s="15"/>
-      <c r="Z48" s="15"/>
-      <c r="AA48" s="15"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="34"/>
       <c r="B49" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="36" t="s">
         <v>28</v>
       </c>
       <c r="E49" s="15" t="s">
@@ -5299,17 +4962,17 @@
       <c r="L49" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="N49" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O49" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P49" s="10" t="s">
-        <v>14</v>
+      <c r="M49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="Q49" s="15" t="s">
         <v>12</v>
@@ -5338,20 +5001,14 @@
       <c r="Y49" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z49" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA49" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="34"/>
       <c r="B50" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C50" s="15"/>
-      <c r="D50" s="18"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="15" t="s">
         <v>27</v>
       </c>
@@ -5376,17 +5033,17 @@
       <c r="L50" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M50" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N50" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="O50" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P50" s="10" t="s">
-        <v>14</v>
+      <c r="M50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P50" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="Q50" s="15" t="s">
         <v>12</v>
@@ -5415,15 +5072,9 @@
       <c r="Y50" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z50" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA50" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="34"/>
       <c r="B51" s="15" t="s">
         <v>40</v>
       </c>
@@ -5455,17 +5106,17 @@
       <c r="L51" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M51" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>14</v>
+      <c r="M51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P51" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="Q51" s="15" t="s">
         <v>12</v>
@@ -5494,15 +5145,9 @@
       <c r="Y51" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z51" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA51" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="34"/>
       <c r="B52" s="15" t="s">
         <v>41</v>
       </c>
@@ -5534,11 +5179,11 @@
       <c r="L52" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M52" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="N52" s="39" t="s">
-        <v>51</v>
+      <c r="M52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="O52" s="15" t="s">
         <v>12</v>
@@ -5573,15 +5218,9 @@
       <c r="Y52" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z52" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA52" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="34"/>
       <c r="B53" s="15" t="s">
         <v>41</v>
       </c>
@@ -5611,11 +5250,11 @@
       <c r="L53" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M53" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N53" s="39" t="s">
-        <v>51</v>
+      <c r="M53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="O53" s="15" t="s">
         <v>12</v>
@@ -5650,104 +5289,92 @@
       <c r="Y53" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z53" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA53" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V54" s="25"/>
-      <c r="W54" s="25"/>
-    </row>
-    <row r="55" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A55" s="18">
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+    </row>
+    <row r="55" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+      <c r="A55" s="34">
         <v>5</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="H55" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I55" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="J55" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K55" s="30" t="s">
+      <c r="I55" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L55" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="L55" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="M55" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="N55" s="38" t="s">
+      <c r="M55" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O55" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="P55" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q55" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="R55" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="S55" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="T55" s="30" t="s">
+      <c r="N55" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="O55" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P55" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q55" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="R55" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="S55" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="T55" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="U55" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="V55" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="U55" s="23" t="s">
+      <c r="W55" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="V55" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="W55" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="X55" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y55" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z55" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA55" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
+      <c r="X55" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y55" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="34"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="19"/>
+      <c r="E56" s="33"/>
       <c r="F56" s="7" t="s">
         <v>7</v>
       </c>
@@ -5769,63 +5396,57 @@
       <c r="L56" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M56" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="N56" s="39" t="s">
-        <v>51</v>
+      <c r="M56" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P56" s="10" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="R56" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="S56" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="T56" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="U56" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="V56" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="W56" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="X56" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="S56" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="T56" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U56" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="V56" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="W56" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="X56" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y56" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y56" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z56" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA56" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="34"/>
       <c r="B57" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="15"/>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="36" t="s">
         <v>28</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>12</v>
@@ -5848,20 +5469,20 @@
       <c r="L57" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M57" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N57" s="40" t="s">
+      <c r="M57" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N57" s="10" t="s">
         <v>12</v>
       </c>
       <c r="O57" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P57" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q57" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q57" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="R57" s="13" t="s">
         <v>12</v>
@@ -5887,20 +5508,14 @@
       <c r="Y57" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z57" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA57" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="34"/>
       <c r="B58" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="15"/>
-      <c r="D58" s="18"/>
+      <c r="D58" s="36"/>
       <c r="E58" s="13" t="s">
         <v>27</v>
       </c>
@@ -5925,16 +5540,16 @@
       <c r="L58" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M58" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N58" s="40" t="s">
+      <c r="M58" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N58" s="10" t="s">
         <v>12</v>
       </c>
       <c r="O58" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P58" s="10" t="s">
+      <c r="P58" s="13" t="s">
         <v>12</v>
       </c>
       <c r="Q58" s="13" t="s">
@@ -5964,22 +5579,16 @@
       <c r="Y58" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z58" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA58" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="34"/>
       <c r="B59" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="15"/>
-      <c r="D59" s="18"/>
+      <c r="D59" s="36"/>
       <c r="E59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>12</v>
@@ -6002,20 +5611,20 @@
       <c r="L59" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M59" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N59" s="40" t="s">
+      <c r="M59" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N59" s="13" t="s">
         <v>12</v>
       </c>
       <c r="O59" s="13" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="P59" s="13" t="s">
         <v>12</v>
       </c>
       <c r="Q59" s="13" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="R59" s="13" t="s">
         <v>12</v>
@@ -6041,23 +5650,17 @@
       <c r="Y59" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z59" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA59" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="34"/>
       <c r="B60" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="13" t="s">
@@ -6081,20 +5684,20 @@
       <c r="L60" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M60" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N60" s="40" t="s">
+      <c r="M60" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N60" s="15" t="s">
         <v>12</v>
       </c>
       <c r="O60" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P60" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q60" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="P60" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q60" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="R60" s="13" t="s">
         <v>12</v>
@@ -6120,23 +5723,17 @@
       <c r="Y60" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z60" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA60" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="34"/>
       <c r="B61" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="13" t="s">
@@ -6160,20 +5757,20 @@
       <c r="L61" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M61" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N61" s="40" t="s">
+      <c r="M61" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N61" s="15" t="s">
         <v>12</v>
       </c>
       <c r="O61" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P61" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q61" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="P61" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q61" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="R61" s="13" t="s">
         <v>12</v>
@@ -6199,23 +5796,17 @@
       <c r="Y61" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z61" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA61" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
+    </row>
+    <row r="62" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="34"/>
       <c r="B62" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E62" s="15"/>
       <c r="F62" s="13" t="s">
@@ -6239,20 +5830,20 @@
       <c r="L62" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M62" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N62" s="40" t="s">
+      <c r="M62" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N62" s="15" t="s">
         <v>12</v>
       </c>
       <c r="O62" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P62" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q62" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="P62" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q62" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="R62" s="13" t="s">
         <v>12</v>
@@ -6278,20 +5869,14 @@
       <c r="Y62" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z62" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA62" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="34"/>
       <c r="B63" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>34</v>
@@ -6318,20 +5903,20 @@
       <c r="L63" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M63" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N63" s="40" t="s">
+      <c r="M63" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="15" t="s">
         <v>12</v>
       </c>
       <c r="O63" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P63" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q63" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="P63" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q63" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="R63" s="13" t="s">
         <v>12</v>
@@ -6357,104 +5942,92 @@
       <c r="Y63" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z63" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA63" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V64" s="25"/>
-      <c r="W64" s="25"/>
-    </row>
-    <row r="65" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A65" s="50">
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+    </row>
+    <row r="65" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+      <c r="A65" s="34">
         <v>6</v>
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="29" t="s">
+      <c r="F65" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G65" s="29" t="s">
+      <c r="H65" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H65" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I65" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="J65" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K65" s="30" t="s">
+      <c r="I65" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J65" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K65" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L65" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="L65" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="M65" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="N65" s="38" t="s">
+      <c r="M65" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O65" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="P65" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q65" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="R65" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="S65" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="T65" s="30" t="s">
+      <c r="N65" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="O65" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P65" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q65" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="R65" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="S65" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="T65" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="U65" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="V65" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="U65" s="23" t="s">
+      <c r="W65" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="V65" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="W65" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="X65" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y65" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z65" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA65" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
+      <c r="X65" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y65" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="34"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="19"/>
+      <c r="E66" s="33"/>
       <c r="F66" s="7" t="s">
         <v>7</v>
       </c>
@@ -6476,54 +6049,48 @@
       <c r="L66" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M66" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="N66" s="39" t="s">
-        <v>51</v>
+      <c r="M66" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N66" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="O66" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P66" s="10" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Q66" s="10" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="S66" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="T66" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="U66" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="V66" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="W66" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="X66" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="S66" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="T66" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U66" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="V66" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="W66" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="X66" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y66" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y66" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z66" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA66" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
+    </row>
+    <row r="67" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="34"/>
       <c r="B67" s="15" t="s">
         <v>23</v>
       </c>
@@ -6532,7 +6099,7 @@
         <v>28</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F67" s="13" t="s">
         <v>12</v>
@@ -6555,10 +6122,10 @@
       <c r="L67" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M67" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N67" s="40" t="s">
+      <c r="M67" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" s="13" t="s">
         <v>12</v>
       </c>
       <c r="O67" s="13" t="s">
@@ -6570,20 +6137,20 @@
       <c r="Q67" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R67" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S67" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="T67" s="13" t="s">
-        <v>94</v>
+      <c r="R67" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="S67" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="T67" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="U67" s="13" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="V67" s="13" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="W67" s="13" t="s">
         <v>12</v>
@@ -6594,15 +6161,9 @@
       <c r="Y67" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z67" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA67" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68" s="34"/>
       <c r="B68" s="15" t="s">
         <v>23</v>
       </c>
@@ -6632,10 +6193,10 @@
       <c r="L68" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M68" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N68" s="40" t="s">
+      <c r="M68" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68" s="13" t="s">
         <v>12</v>
       </c>
       <c r="O68" s="13" t="s">
@@ -6647,404 +6208,648 @@
       <c r="Q68" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R68" s="13" t="s">
-        <v>12</v>
+      <c r="R68" s="13">
+        <v>0</v>
       </c>
       <c r="S68" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="T68" s="13">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="T68" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="U68" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="V68" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="W68" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X68" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y68" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="39"/>
+      <c r="B69" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R69" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="S69" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="T69" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="V69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="W69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y69" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
+      <c r="B70" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R70" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="S70" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="T70" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="V70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="W70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y70" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+    </row>
+    <row r="72" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+      <c r="A72" s="34">
+        <v>7</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I72" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J72" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K72" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L72" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M72" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="N72" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="O72" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P72" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q72" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="R72" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="S72" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="T72" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="U72" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="V72" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="W72" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="X72" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="V68" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="W68" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X68" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y68" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z68" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA68" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="25"/>
-      <c r="R69" s="25"/>
-      <c r="S69" s="25"/>
-      <c r="T69" s="25"/>
-      <c r="U69" s="25"/>
-      <c r="V69" s="25"/>
-      <c r="W69" s="25"/>
-    </row>
-    <row r="70" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A70" s="50">
+      <c r="Y72" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="34"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G70" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H70" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I70" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="J70" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K70" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="L70" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="M70" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="N70" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="O70" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="P70" s="30" t="s">
+      <c r="G73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M73" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P73" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="Q70" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="R70" s="30" t="s">
+      <c r="Q73" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="R73" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="S73" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="T73" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="S70" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="T70" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="U70" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="V70" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="W70" s="30" t="s">
+      <c r="U73" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="V73" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="X70" s="30" t="s">
+      <c r="W73" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="Y70" s="29" t="s">
+      <c r="X73" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="Z70" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA70" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M71" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="N71" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O71" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P71" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q71" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="R71" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="S71" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="T71" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="U71" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="V71" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="W71" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="X71" s="23" t="s">
+      <c r="Y73" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y71" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z71" s="23" t="s">
+    </row>
+    <row r="74" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="34"/>
+      <c r="B74" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="AA71" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
-      <c r="B72" s="15" t="s">
+      <c r="F74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U74" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="V74" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="W74" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="X74" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y74" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A75" s="34"/>
+      <c r="B75" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M72" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N72" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="T72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="U72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="V72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="W72" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="X72" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y72" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z72" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA72" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A73" s="50"/>
-      <c r="B73" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="13" t="s">
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M73" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N73" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="T73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="U73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="V73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="W73" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="X73" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y73" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z73" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA73" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" ht="55.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" ht="55.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="32" t="s">
-        <v>84</v>
-      </c>
+      <c r="F75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U75" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="V75" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="W75" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="X75" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y75" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="39"/>
+      <c r="B76" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="21"/>
+      <c r="F76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U76" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="V76" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="W76" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="X76" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y76" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="39"/>
+      <c r="B77" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="21"/>
+      <c r="F77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U77" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="V77" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="W77" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="X77" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y77" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A78" s="27"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A79" s="28"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A80" s="27"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E46:E47"/>
     <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A72:A75"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D57:D59"/>
@@ -7056,591 +6861,26 @@
     <mergeCell ref="A46:A53"/>
     <mergeCell ref="A33:A44"/>
     <mergeCell ref="A11:A18"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E46:E47"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A76" r:id="rId1" display="http://www.cplusplus.com/reference/iomanip/put_time/" xr:uid="{D7200F9D-E5F6-49F2-BB7A-88334FF421DA}"/>
-    <hyperlink ref="A74" r:id="rId2" display="http://www.cplusplus.com/reference/iomanip/get_time/" xr:uid="{E7BA772D-6CBD-492A-8BA8-CC7342451DC2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB3E67D-61A3-4949-8AB9-DD7E70FE88C7}">
-  <dimension ref="A17:Q28"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:Q22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="17" spans="1:17" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>2</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="P17" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q17" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="O18" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="P18" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q18" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="N28" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="O28" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="P28" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q28" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A17:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D20:D23"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9D3B49-8B54-4F87-A182-89A55F86A36F}">
   <dimension ref="B3:D7"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7649,57 +6889,57 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>135</v>
+      <c r="B3" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="34">
+      <c r="B4" s="30">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="34">
+      <c r="B5" s="30">
         <v>2</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="34" t="s">
+      <c r="C5" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="34">
+      <c r="B6" s="30">
         <v>3</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="34">
+      <c r="B7" s="30">
         <v>4</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="34"/>
+      <c r="C7" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7707,6 +6947,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBB7A71D0CA6E045BD708EF4C808547A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e8f8b6de82a539ac73bb7d17dfbd11da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ef8f1728-cc87-4aeb-a1ab-b1c52ebabaec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="45ea8b21f28ab276ba27a376b44c48c1" ns3:_="">
     <xsd:import namespace="ef8f1728-cc87-4aeb-a1ab-b1c52ebabaec"/>
@@ -7838,22 +7093,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF8A16A5-6A70-472F-9C74-ADB2212622A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ef8f1728-cc87-4aeb-a1ab-b1c52ebabaec"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D1B2B29-F87D-4F41-B220-6F031569A54C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E743E5B-EF28-4B24-A6D4-0F584303DD4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7869,28 +7133,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D1B2B29-F87D-4F41-B220-6F031569A54C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF8A16A5-6A70-472F-9C74-ADB2212622A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ef8f1728-cc87-4aeb-a1ab-b1c52ebabaec"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/פרויקט גמר CPP.xlsx
+++ b/פרויקט גמר CPP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidM\source\repos\finalProjectCpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A556E9D0-9BBD-4386-8676-CD42CC3A8BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54510B9A-5776-4490-A73B-7D0607A08B46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="3345" windowWidth="18300" windowHeight="11190" xr2:uid="{D5F3B20F-B123-4529-BBC6-744239AAD04B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="138">
   <si>
     <t>פרויקט</t>
   </si>
@@ -478,6 +478,24 @@
   <si>
     <t>שם המשתתף
 string nameP</t>
+  </si>
+  <si>
+    <t>שדה 24</t>
+  </si>
+  <si>
+    <t>שם הפרויקט
+string projectName</t>
+  </si>
+  <si>
+    <t>שדה 25</t>
+  </si>
+  <si>
+    <t>אינדקס נוכחי
+int indexTask</t>
+  </si>
+  <si>
+    <t>רשימת מטלות
+task **tasklist</t>
   </si>
 </sst>
 </file>
@@ -1145,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E862EF-A94E-44EF-9A0C-D518F53F1219}">
-  <dimension ref="F1:AJ20"/>
+  <dimension ref="F1:AM37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH26" sqref="AH26"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG32" sqref="AG32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,12 +1194,12 @@
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="6:39" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="6:39" x14ac:dyDescent="0.25">
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1192,12 +1210,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="6:39" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="6:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:39" ht="30" x14ac:dyDescent="0.25">
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1271,8 +1289,15 @@
       <c r="AJ5" s="22" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="6:36" ht="105" x14ac:dyDescent="0.25">
+      <c r="AK5" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL5" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM5" s="4"/>
+    </row>
+    <row r="6" spans="6:39" ht="105" x14ac:dyDescent="0.25">
       <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1346,8 +1371,17 @@
       <c r="AJ6" s="8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="6:36" x14ac:dyDescent="0.25">
+      <c r="AK6" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="6:39" x14ac:dyDescent="0.25">
       <c r="I7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1432,8 +1466,17 @@
       <c r="AJ7" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="6:36" x14ac:dyDescent="0.25">
+      <c r="AK7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="6:39" x14ac:dyDescent="0.25">
       <c r="M8" s="4">
         <v>2</v>
       </c>
@@ -1506,8 +1549,17 @@
       <c r="AJ8" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="6:36" x14ac:dyDescent="0.25">
+      <c r="AK8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="6:39" x14ac:dyDescent="0.25">
       <c r="M9" s="4">
         <v>4</v>
       </c>
@@ -1580,8 +1632,17 @@
       <c r="AJ9" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="6:36" x14ac:dyDescent="0.25">
+      <c r="AK9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="6:39" x14ac:dyDescent="0.25">
       <c r="M10" s="4">
         <v>3</v>
       </c>
@@ -1654,8 +1715,17 @@
       <c r="AJ10" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="6:36" x14ac:dyDescent="0.25">
+      <c r="AK10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="6:39" x14ac:dyDescent="0.25">
       <c r="M11" s="5">
         <v>5</v>
       </c>
@@ -1728,8 +1798,17 @@
       <c r="AJ11" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="6:36" x14ac:dyDescent="0.25">
+      <c r="AK11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM11" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="6:39" x14ac:dyDescent="0.25">
       <c r="M12" s="5">
         <v>6</v>
       </c>
@@ -1802,8 +1881,17 @@
       <c r="AJ12" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="6:36" x14ac:dyDescent="0.25">
+      <c r="AK12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="6:39" x14ac:dyDescent="0.25">
       <c r="M13" s="5">
         <v>7</v>
       </c>
@@ -1874,12 +1962,29 @@
         <v>13</v>
       </c>
       <c r="AJ13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z20" s="1" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="24:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="X37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y37" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/פרויקט גמר CPP.xlsx
+++ b/פרויקט גמר CPP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidM\source\repos\finalProjectCpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54510B9A-5776-4490-A73B-7D0607A08B46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E27773A-BAB0-4E47-BFFA-FFF4ABBD3569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="3345" windowWidth="18300" windowHeight="11190" xr2:uid="{D5F3B20F-B123-4529-BBC6-744239AAD04B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{D5F3B20F-B123-4529-BBC6-744239AAD04B}"/>
   </bookViews>
   <sheets>
     <sheet name="כללי" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="151">
   <si>
     <t>פרויקט</t>
   </si>
@@ -496,13 +496,74 @@
   <si>
     <t>רשימת מטלות
 task **tasklist</t>
+  </si>
+  <si>
+    <t>משימה task</t>
+  </si>
+  <si>
+    <t>פגישה meeting</t>
+  </si>
+  <si>
+    <t>פגישהXתשלום payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">התקנהinstall </t>
+  </si>
+  <si>
+    <t>פרויקט project</t>
+  </si>
+  <si>
+    <t>משאב resource</t>
+  </si>
+  <si>
+    <t>משתתף participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">יקיר מיימון    203987557 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+        <family val="2"/>
+      </rPr>
+      <t>שקד ספקטור308132281</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> שקד ספקטור</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דוד מוסייב </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> יקיר מימון</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +605,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="David"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="David"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -621,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="2"/>
@@ -738,6 +811,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -766,8 +848,8 @@
       <xdr:rowOff>14452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>108428</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>375128</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>129140</xdr:rowOff>
     </xdr:to>
@@ -1165,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E862EF-A94E-44EF-9A0C-D518F53F1219}">
   <dimension ref="F1:AM37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG32" sqref="AG32"/>
+    <sheetView rightToLeft="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH32" sqref="AH32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,7 +1262,7 @@
     <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="9.140625" style="1"/>
     <col min="22" max="22" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -1220,7 +1302,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="6"/>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="40" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="6" t="s">
@@ -1304,7 +1386,9 @@
       <c r="M6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="33"/>
+      <c r="N6" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="O6" s="18" t="s">
         <v>66</v>
       </c>
@@ -1398,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="O7" s="23" t="s">
         <v>13</v>
@@ -1481,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="O8" s="23" t="s">
         <v>14</v>
@@ -1564,7 +1648,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="O9" s="23" t="s">
         <v>14</v>
@@ -1647,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="O10" s="24" t="s">
         <v>14</v>
@@ -1730,7 +1814,7 @@
         <v>5</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>12</v>
@@ -1813,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>12</v>
@@ -1896,7 +1980,7 @@
         <v>7</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>12</v>
@@ -1979,18 +2063,24 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="24:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="24:28" ht="45" x14ac:dyDescent="0.25">
       <c r="X37" s="8" t="s">
         <v>74</v>
       </c>
       <c r="Y37" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="Z37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA37" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB37" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="N5:N6"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6982,15 +7072,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9D3B49-8B54-4F87-A182-89A55F86A36F}">
-  <dimension ref="B3:D7"/>
+  <dimension ref="B3:O27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A17" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="J27" sqref="I25:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -7045,6 +7138,44 @@
         <v>128</v>
       </c>
       <c r="D7" s="30"/>
+    </row>
+    <row r="20" spans="9:15" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="K20" s="41"/>
+      <c r="L20" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="O20" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="9:15" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M21" s="42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I25" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="30">
+        <v>319455119</v>
+      </c>
+    </row>
+    <row r="26" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I26" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="J26" s="30">
+        <v>203987557</v>
+      </c>
+    </row>
+    <row r="27" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I27" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="J27" s="30">
+        <v>308132281</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
